--- a/BackTest/2019-10-29 BackTest LTC.xlsx
+++ b/BackTest/2019-10-29 BackTest LTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2827,7 +2827,7 @@
         <v>-158.61308282</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-157.25858282</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-258.39808282</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-171.56570776</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-169.36910776</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-93.39100775999999</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-93.39100775999999</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-93.39100775999999</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>32.09079224000001</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>49.78539224000001</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>34.86759224000001</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>36.91519224000002</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>14.63059224000002</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14.63059224000002</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>22.40869224000001</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>24.34559224000002</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6.806592240000015</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>8.051892240000015</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-6.455507759999985</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-6.455507759999985</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-150.97350776</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-154.47040776</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-148.19330776</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-148.19330776</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-149.08330776</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-250.18860776</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-209.75090776</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-662.07020776</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-644.31630776</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-640.98600776</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-614.9944077599999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-615.8160077599999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-828.41623421</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-828.41623421</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-839.13353421</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-903.05053421</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-920.17473421</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-1013.81763421</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-1016.09393421</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-1065.54673421</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -7942,14 +7942,10 @@
         <v>-1688.526165530001</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>67000</v>
-      </c>
-      <c r="J229" t="n">
-        <v>67000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
@@ -7979,19 +7975,11 @@
         <v>-1678.371365530001</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
-      </c>
-      <c r="I230" t="n">
-        <v>67100</v>
-      </c>
-      <c r="J230" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8020,19 +8008,11 @@
         <v>-1676.509665530001</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
-      </c>
-      <c r="I231" t="n">
-        <v>67200</v>
-      </c>
-      <c r="J231" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8061,19 +8041,11 @@
         <v>-1627.91486553</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
-      </c>
-      <c r="I232" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J232" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8102,19 +8074,11 @@
         <v>-1627.854865530001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J233" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8146,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8185,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8224,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8263,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8302,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8338,19 +8272,11 @@
         <v>-1720.894969990001</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>67350</v>
-      </c>
-      <c r="J239" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8379,19 +8305,11 @@
         <v>-1700.222669990001</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>67200</v>
-      </c>
-      <c r="J240" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8420,19 +8338,11 @@
         <v>-1688.298669990001</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>67250</v>
-      </c>
-      <c r="J241" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8461,19 +8371,11 @@
         <v>-1688.298669990001</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J242" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8505,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8544,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8583,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8622,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8658,19 +8536,11 @@
         <v>-1588.946669990001</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>67550</v>
-      </c>
-      <c r="J247" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8699,19 +8569,11 @@
         <v>-1511.788269990001</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J248" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8743,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8782,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8821,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8860,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8899,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8938,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8977,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9016,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9055,14 +8869,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9094,14 +8902,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9133,14 +8935,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9172,14 +8968,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9211,14 +9001,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9250,14 +9034,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9289,14 +9067,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9328,14 +9100,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9367,14 +9133,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9406,14 +9166,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9445,14 +9199,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9484,14 +9232,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9523,14 +9265,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9562,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9601,14 +9331,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9640,14 +9364,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9679,14 +9397,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9718,14 +9430,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9757,14 +9463,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9796,14 +9496,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9835,14 +9529,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9874,14 +9562,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9913,14 +9595,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9952,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9991,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10030,14 +9694,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10069,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10108,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10147,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10186,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10225,14 +9859,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10264,14 +9892,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10303,14 +9925,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10342,14 +9958,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10381,14 +9991,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10420,14 +10024,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10459,14 +10057,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10498,14 +10090,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10537,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10576,14 +10156,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10615,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10654,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10693,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10732,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10771,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10810,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10849,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10888,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10927,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10966,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11005,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11044,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11083,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11122,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11161,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11197,19 +10681,11 @@
         <v>-2298.243043200001</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>67250</v>
-      </c>
-      <c r="J312" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11238,19 +10714,11 @@
         <v>-2303.376543200001</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
-      </c>
-      <c r="I313" t="n">
-        <v>67350</v>
-      </c>
-      <c r="J313" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11279,19 +10747,11 @@
         <v>-2306.831343200001</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="n">
-        <v>67250</v>
-      </c>
-      <c r="J314" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11320,19 +10780,11 @@
         <v>-2306.831343200001</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="n">
-        <v>67200</v>
-      </c>
-      <c r="J315" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11361,19 +10813,15 @@
         <v>-2307.975543200002</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>67200</v>
       </c>
       <c r="J316" t="n">
-        <v>67000</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>67200</v>
+      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11402,17 +10850,15 @@
         <v>-2307.975543200002</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>67150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L317" t="n">
@@ -11443,17 +10889,15 @@
         <v>-2297.945343200001</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>67150</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L318" t="n">
@@ -11484,13 +10928,11 @@
         <v>-2297.945343200001</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="n">
-        <v>67200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11525,13 +10967,11 @@
         <v>-2296.432643200001</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="n">
-        <v>67200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11566,13 +11006,11 @@
         <v>-2289.942543200001</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="n">
-        <v>67250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11607,13 +11045,11 @@
         <v>-2287.252243200001</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
-      </c>
-      <c r="I322" t="n">
-        <v>67350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11648,13 +11084,11 @@
         <v>-2287.252243200001</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="n">
-        <v>67400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11689,13 +11123,11 @@
         <v>-2287.103943200001</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
-      </c>
-      <c r="I324" t="n">
-        <v>67400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11730,13 +11162,11 @@
         <v>-2288.292243200001</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
-      </c>
-      <c r="I325" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11771,13 +11201,11 @@
         <v>-2288.292243200001</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>67250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11812,13 +11240,11 @@
         <v>-2288.292243200001</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>67250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -11853,13 +11279,11 @@
         <v>-2288.824043200001</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>67250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -11894,13 +11318,11 @@
         <v>-2288.369743200001</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>67200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -11935,13 +11357,11 @@
         <v>-2279.609743200001</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>67350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -11976,13 +11396,11 @@
         <v>-2259.536643200001</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12021,7 +11439,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12060,7 +11478,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12099,7 +11517,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12138,7 +11556,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -12177,7 +11595,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -12216,7 +11634,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -12255,7 +11673,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -12294,7 +11712,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -12333,7 +11751,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -12372,7 +11790,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -12411,7 +11829,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -12450,7 +11868,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -12489,7 +11907,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -12528,7 +11946,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -12567,7 +11985,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -12606,7 +12024,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -12645,7 +12063,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -12684,7 +12102,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -12723,7 +12141,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -12762,7 +12180,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -12801,7 +12219,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -12840,7 +12258,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -12879,7 +12297,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -12918,7 +12336,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -12957,7 +12375,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -12996,7 +12414,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13035,7 +12453,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13074,7 +12492,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13113,7 +12531,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -13152,7 +12570,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -13191,7 +12609,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -13230,7 +12648,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -13269,7 +12687,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -13308,7 +12726,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -13347,7 +12765,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -13386,7 +12804,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -13425,7 +12843,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -13464,7 +12882,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -13503,7 +12921,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -13542,7 +12960,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -13581,7 +12999,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -13620,7 +13038,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -13659,7 +13077,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -13698,7 +13116,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -13737,7 +13155,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -13776,7 +13194,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13815,7 +13233,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13854,7 +13272,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13893,7 +13311,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13932,7 +13350,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13971,7 +13389,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14010,7 +13428,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14049,7 +13467,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14088,7 +13506,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14127,7 +13545,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -14166,7 +13584,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -14205,7 +13623,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -14244,7 +13662,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -14283,7 +13701,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -14322,7 +13740,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -14361,7 +13779,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -14400,7 +13818,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -14439,7 +13857,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -14478,7 +13896,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -14517,7 +13935,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -14556,7 +13974,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -14595,7 +14013,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -14634,7 +14052,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -14673,7 +14091,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -14712,7 +14130,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -14751,7 +14169,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -14790,7 +14208,7 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14829,7 +14247,7 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14868,7 +14286,7 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14907,7 +14325,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14946,7 +14364,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14985,7 +14403,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -15024,7 +14442,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -15063,7 +14481,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -15102,7 +14520,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -15141,7 +14559,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -15180,7 +14598,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -15219,7 +14637,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -15258,7 +14676,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -15297,7 +14715,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -15336,7 +14754,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -15375,7 +14793,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -15414,7 +14832,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -15453,7 +14871,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -15492,7 +14910,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -15531,7 +14949,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -15570,7 +14988,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -15609,7 +15027,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -15648,7 +15066,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -15687,7 +15105,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -15726,7 +15144,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -15765,7 +15183,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15804,7 +15222,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15843,7 +15261,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15882,7 +15300,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15921,7 +15339,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15960,7 +15378,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15999,7 +15417,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -16038,7 +15456,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -16077,7 +15495,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -16116,7 +15534,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -16155,7 +15573,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -16194,7 +15612,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -16233,7 +15651,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -16272,7 +15690,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -16311,7 +15729,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -16350,7 +15768,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -16389,7 +15807,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -16428,7 +15846,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -16467,7 +15885,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -16506,7 +15924,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -16545,7 +15963,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -16584,7 +16002,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -16623,7 +16041,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -16662,7 +16080,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -16701,7 +16119,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -16740,7 +16158,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16779,7 +16197,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16818,7 +16236,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16857,7 +16275,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16896,7 +16314,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16935,7 +16353,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16974,7 +16392,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -17013,7 +16431,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -17052,7 +16470,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -17091,7 +16509,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -17130,7 +16548,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -17169,7 +16587,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -17208,7 +16626,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -17247,7 +16665,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -17286,7 +16704,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -17325,7 +16743,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -17364,7 +16782,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -17403,7 +16821,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -17442,7 +16860,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -17481,7 +16899,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -17520,7 +16938,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -17559,7 +16977,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -17598,7 +17016,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -17637,7 +17055,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -17676,7 +17094,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -17715,7 +17133,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K478" t="inlineStr">
         <is>
@@ -17754,7 +17172,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K479" t="inlineStr">
         <is>
@@ -17793,7 +17211,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K480" t="inlineStr">
         <is>
@@ -17832,7 +17250,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K481" t="inlineStr">
         <is>
@@ -17871,7 +17289,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K482" t="inlineStr">
         <is>
@@ -17910,7 +17328,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K483" t="inlineStr">
         <is>
@@ -17949,7 +17367,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K484" t="inlineStr">
         <is>
@@ -17988,7 +17406,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K485" t="inlineStr">
         <is>
@@ -18027,7 +17445,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K486" t="inlineStr">
         <is>
@@ -18066,7 +17484,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K487" t="inlineStr">
         <is>
@@ -18105,7 +17523,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K488" t="inlineStr">
         <is>
@@ -18144,7 +17562,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K489" t="inlineStr">
         <is>
@@ -18183,7 +17601,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K490" t="inlineStr">
         <is>
@@ -18222,7 +17640,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K491" t="inlineStr">
         <is>
@@ -18261,7 +17679,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K492" t="inlineStr">
         <is>
@@ -18300,7 +17718,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K493" t="inlineStr">
         <is>
@@ -18339,7 +17757,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K494" t="inlineStr">
         <is>
@@ -18378,7 +17796,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K495" t="inlineStr">
         <is>
@@ -18413,11 +17831,13 @@
         <v>-5129.004849920003</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>67500</v>
+      </c>
       <c r="J496" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K496" t="inlineStr">
         <is>
@@ -18452,11 +17872,13 @@
         <v>-4959.271549410003</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>67600</v>
+      </c>
       <c r="J497" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K497" t="inlineStr">
         <is>
@@ -18491,11 +17913,13 @@
         <v>-4973.492349410003</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>67950</v>
+      </c>
       <c r="J498" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
@@ -18530,11 +17954,13 @@
         <v>-4967.034236160003</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>67750</v>
+      </c>
       <c r="J499" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
@@ -18569,11 +17995,13 @@
         <v>-5019.109736160003</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>67900</v>
+      </c>
       <c r="J500" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K500" t="inlineStr">
         <is>
@@ -18608,11 +18036,13 @@
         <v>-5019.109736160003</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>67700</v>
+      </c>
       <c r="J501" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
@@ -18647,11 +18077,13 @@
         <v>-5019.109736160003</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>67700</v>
+      </c>
       <c r="J502" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
@@ -18686,11 +18118,13 @@
         <v>-5019.638936160003</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>67700</v>
+      </c>
       <c r="J503" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
@@ -18725,11 +18159,13 @@
         <v>-5035.101136160003</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>67600</v>
+      </c>
       <c r="J504" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
@@ -18764,11 +18200,13 @@
         <v>-4973.923436160003</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>67400</v>
+      </c>
       <c r="J505" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K505" t="inlineStr">
         <is>
@@ -18803,11 +18241,13 @@
         <v>-4973.923436160003</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>67500</v>
+      </c>
       <c r="J506" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K506" t="inlineStr">
         <is>
@@ -18842,11 +18282,13 @@
         <v>-4975.113436160002</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>67500</v>
+      </c>
       <c r="J507" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K507" t="inlineStr">
         <is>
@@ -18881,11 +18323,13 @@
         <v>-4984.768936160002</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>67400</v>
+      </c>
       <c r="J508" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
@@ -18920,11 +18364,13 @@
         <v>-5068.875336160002</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>67300</v>
+      </c>
       <c r="J509" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
@@ -18959,11 +18405,13 @@
         <v>-5052.394236160002</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>67200</v>
+      </c>
       <c r="J510" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
@@ -18998,11 +18446,13 @@
         <v>-5099.974136160002</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>67350</v>
+      </c>
       <c r="J511" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K511" t="inlineStr">
         <is>
@@ -19037,11 +18487,13 @@
         <v>-5099.974136160002</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>67300</v>
+      </c>
       <c r="J512" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K512" t="inlineStr">
         <is>
@@ -19076,11 +18528,13 @@
         <v>-5099.974136160002</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>67300</v>
+      </c>
       <c r="J513" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K513" t="inlineStr">
         <is>
@@ -19115,11 +18569,13 @@
         <v>-5276.613936160002</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>67300</v>
+      </c>
       <c r="J514" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K514" t="inlineStr">
         <is>
@@ -19154,11 +18610,13 @@
         <v>-5253.466036160002</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>67100</v>
+      </c>
       <c r="J515" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K515" t="inlineStr">
         <is>
@@ -19193,11 +18651,13 @@
         <v>-5253.466036160002</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>67450</v>
+      </c>
       <c r="J516" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K516" t="inlineStr">
         <is>
@@ -19232,11 +18692,13 @@
         <v>-5253.002636160002</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>67450</v>
+      </c>
       <c r="J517" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K517" t="inlineStr">
         <is>
@@ -19271,11 +18733,13 @@
         <v>-5231.819636160002</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>67500</v>
+      </c>
       <c r="J518" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K518" t="inlineStr">
         <is>
@@ -19310,11 +18774,13 @@
         <v>-5202.059036160003</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>67600</v>
+      </c>
       <c r="J519" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K519" t="inlineStr">
         <is>
@@ -19349,11 +18815,13 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>67950</v>
+      </c>
       <c r="J520" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K520" t="inlineStr">
         <is>
@@ -19392,7 +18860,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K521" t="inlineStr">
         <is>
@@ -19431,7 +18899,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K522" t="inlineStr">
         <is>
@@ -19470,7 +18938,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K523" t="inlineStr">
         <is>
@@ -19509,7 +18977,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K524" t="inlineStr">
         <is>
@@ -19548,7 +19016,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K525" t="inlineStr">
         <is>
@@ -19587,7 +19055,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K526" t="inlineStr">
         <is>
@@ -19622,11 +19090,13 @@
         <v>-5205.517036160003</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>67600</v>
+      </c>
       <c r="J527" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K527" t="inlineStr">
         <is>
@@ -19665,7 +19135,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K528" t="inlineStr">
         <is>
@@ -19704,7 +19174,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K529" t="inlineStr">
         <is>
@@ -19743,7 +19213,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K530" t="inlineStr">
         <is>
@@ -19782,7 +19252,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K531" t="inlineStr">
         <is>
@@ -19821,7 +19291,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K532" t="inlineStr">
         <is>
@@ -19860,7 +19330,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K533" t="inlineStr">
         <is>
@@ -19899,7 +19369,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K534" t="inlineStr">
         <is>
@@ -19938,7 +19408,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K535" t="inlineStr">
         <is>
@@ -19977,7 +19447,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K536" t="inlineStr">
         <is>
@@ -20016,7 +19486,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K537" t="inlineStr">
         <is>
@@ -20055,7 +19525,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K538" t="inlineStr">
         <is>
@@ -20094,7 +19564,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K539" t="inlineStr">
         <is>
@@ -20133,7 +19603,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K540" t="inlineStr">
         <is>
@@ -20172,7 +19642,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K541" t="inlineStr">
         <is>
@@ -20211,7 +19681,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K542" t="inlineStr">
         <is>
@@ -20250,7 +19720,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K543" t="inlineStr">
         <is>
@@ -20289,7 +19759,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K544" t="inlineStr">
         <is>
@@ -20328,7 +19798,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K545" t="inlineStr">
         <is>
@@ -20367,7 +19837,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K546" t="inlineStr">
         <is>
@@ -20406,7 +19876,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K547" t="inlineStr">
         <is>
@@ -20445,7 +19915,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K548" t="inlineStr">
         <is>
@@ -20484,7 +19954,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K549" t="inlineStr">
         <is>
@@ -20523,7 +19993,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
@@ -20562,7 +20032,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
@@ -20601,7 +20071,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K552" t="inlineStr">
         <is>
@@ -20640,7 +20110,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
@@ -20679,7 +20149,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
@@ -20718,7 +20188,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K555" t="inlineStr">
         <is>
@@ -20757,7 +20227,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K556" t="inlineStr">
         <is>
@@ -20796,7 +20266,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K557" t="inlineStr">
         <is>
@@ -20831,11 +20301,13 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>67600</v>
+      </c>
       <c r="J558" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K558" t="inlineStr">
         <is>
@@ -20870,11 +20342,13 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>67600</v>
+      </c>
       <c r="J559" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K559" t="inlineStr">
         <is>
@@ -20909,11 +20383,13 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>67600</v>
+      </c>
       <c r="J560" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K560" t="inlineStr">
         <is>
@@ -20952,7 +20428,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K561" t="inlineStr">
         <is>
@@ -20991,7 +20467,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K562" t="inlineStr">
         <is>
@@ -21030,7 +20506,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K563" t="inlineStr">
         <is>
@@ -21069,7 +20545,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K564" t="inlineStr">
         <is>
@@ -21108,7 +20584,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K565" t="inlineStr">
         <is>
@@ -21147,7 +20623,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K566" t="inlineStr">
         <is>
@@ -21186,7 +20662,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K567" t="inlineStr">
         <is>
@@ -21225,7 +20701,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K568" t="inlineStr">
         <is>
@@ -21264,7 +20740,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K569" t="inlineStr">
         <is>
@@ -21303,7 +20779,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
@@ -21342,7 +20818,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
@@ -21381,7 +20857,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K572" t="inlineStr">
         <is>
@@ -21420,7 +20896,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K573" t="inlineStr">
         <is>
@@ -21459,7 +20935,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K574" t="inlineStr">
         <is>
@@ -21498,7 +20974,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K575" t="inlineStr">
         <is>
@@ -21537,7 +21013,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -21576,7 +21052,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -21615,7 +21091,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
@@ -21654,7 +21130,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K579" t="inlineStr">
         <is>
@@ -21693,7 +21169,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K580" t="inlineStr">
         <is>
@@ -21732,7 +21208,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K581" t="inlineStr">
         <is>
@@ -21771,7 +21247,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K582" t="inlineStr">
         <is>
@@ -21810,7 +21286,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K583" t="inlineStr">
         <is>
@@ -21849,7 +21325,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K584" t="inlineStr">
         <is>
@@ -21888,7 +21364,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K585" t="inlineStr">
         <is>
@@ -21927,7 +21403,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K586" t="inlineStr">
         <is>
@@ -21966,7 +21442,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K587" t="inlineStr">
         <is>
@@ -22005,7 +21481,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K588" t="inlineStr">
         <is>
@@ -22044,7 +21520,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K589" t="inlineStr">
         <is>
@@ -22083,7 +21559,7 @@
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K590" t="inlineStr">
         <is>
@@ -22122,7 +21598,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K591" t="inlineStr">
         <is>
@@ -22161,7 +21637,7 @@
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K592" t="inlineStr">
         <is>
@@ -22200,7 +21676,7 @@
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K593" t="inlineStr">
         <is>
@@ -22239,7 +21715,7 @@
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K594" t="inlineStr">
         <is>
@@ -22278,7 +21754,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K595" t="inlineStr">
         <is>
@@ -22317,7 +21793,7 @@
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K596" t="inlineStr">
         <is>
@@ -22356,7 +21832,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K597" t="inlineStr">
         <is>
@@ -22395,7 +21871,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K598" t="inlineStr">
         <is>
@@ -22434,7 +21910,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K599" t="inlineStr">
         <is>
@@ -22473,7 +21949,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K600" t="inlineStr">
         <is>
@@ -22512,7 +21988,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K601" t="inlineStr">
         <is>
@@ -22551,7 +22027,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K602" t="inlineStr">
         <is>
@@ -22590,7 +22066,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K603" t="inlineStr">
         <is>
@@ -22629,7 +22105,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K604" t="inlineStr">
         <is>
@@ -22668,7 +22144,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K605" t="inlineStr">
         <is>
@@ -22707,7 +22183,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K606" t="inlineStr">
         <is>
@@ -22746,7 +22222,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K607" t="inlineStr">
         <is>
@@ -22785,7 +22261,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K608" t="inlineStr">
         <is>
@@ -22824,7 +22300,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K609" t="inlineStr">
         <is>
@@ -22863,7 +22339,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K610" t="inlineStr">
         <is>
@@ -22902,7 +22378,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K611" t="inlineStr">
         <is>
@@ -22941,7 +22417,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K612" t="inlineStr">
         <is>
@@ -22980,7 +22456,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K613" t="inlineStr">
         <is>
@@ -23019,7 +22495,7 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K614" t="inlineStr">
         <is>
@@ -23058,7 +22534,7 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K615" t="inlineStr">
         <is>
@@ -23097,7 +22573,7 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K616" t="inlineStr">
         <is>
@@ -23136,7 +22612,7 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K617" t="inlineStr">
         <is>
@@ -23175,7 +22651,7 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K618" t="inlineStr">
         <is>
@@ -23214,7 +22690,7 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K619" t="inlineStr">
         <is>
@@ -23253,7 +22729,7 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K620" t="inlineStr">
         <is>
@@ -23292,7 +22768,7 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K621" t="inlineStr">
         <is>
@@ -23331,7 +22807,7 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K622" t="inlineStr">
         <is>
@@ -23370,7 +22846,7 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K623" t="inlineStr">
         <is>
@@ -23409,7 +22885,7 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K624" t="inlineStr">
         <is>
@@ -23448,7 +22924,7 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K625" t="inlineStr">
         <is>
@@ -23487,7 +22963,7 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K626" t="inlineStr">
         <is>
@@ -23526,7 +23002,7 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K627" t="inlineStr">
         <is>
@@ -23565,7 +23041,7 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K628" t="inlineStr">
         <is>
@@ -23604,7 +23080,7 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K629" t="inlineStr">
         <is>
@@ -23643,7 +23119,7 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K630" t="inlineStr">
         <is>
@@ -23682,7 +23158,7 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K631" t="inlineStr">
         <is>
@@ -23721,7 +23197,7 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K632" t="inlineStr">
         <is>
@@ -23760,7 +23236,7 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K633" t="inlineStr">
         <is>
@@ -23799,7 +23275,7 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K634" t="inlineStr">
         <is>
@@ -23838,7 +23314,7 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K635" t="inlineStr">
         <is>
@@ -23877,7 +23353,7 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K636" t="inlineStr">
         <is>
@@ -23916,7 +23392,7 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K637" t="inlineStr">
         <is>
@@ -23955,7 +23431,7 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K638" t="inlineStr">
         <is>
@@ -23994,7 +23470,7 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K639" t="inlineStr">
         <is>
@@ -24033,7 +23509,7 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K640" t="inlineStr">
         <is>
@@ -24072,7 +23548,7 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K641" t="inlineStr">
         <is>
@@ -24111,7 +23587,7 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
@@ -24150,7 +23626,7 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
@@ -24189,7 +23665,7 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K644" t="inlineStr">
         <is>
@@ -24228,7 +23704,7 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K645" t="inlineStr">
         <is>
@@ -24267,7 +23743,7 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K646" t="inlineStr">
         <is>
@@ -24306,7 +23782,7 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K647" t="inlineStr">
         <is>
@@ -24345,7 +23821,7 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
@@ -24384,7 +23860,7 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
@@ -24423,7 +23899,7 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K650" t="inlineStr">
         <is>
@@ -24462,7 +23938,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
@@ -24501,7 +23977,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
@@ -24540,7 +24016,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K653" t="inlineStr">
         <is>
@@ -24579,7 +24055,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
@@ -24618,7 +24094,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
@@ -24657,7 +24133,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K656" t="inlineStr">
         <is>
@@ -24692,11 +24168,11 @@
         <v>-2410.303939090002</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
@@ -24731,11 +24207,11 @@
         <v>-2463.528739090002</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
@@ -24770,11 +24246,11 @@
         <v>-2418.930739090002</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
@@ -24809,19 +24285,19 @@
         <v>-2403.436539090002</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>67000</v>
+        <v>67200</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L660" t="n">
-        <v>1.035298507462687</v>
+        <v>1</v>
       </c>
       <c r="M660" t="inlineStr"/>
     </row>
@@ -24848,11 +24324,17 @@
         <v>-2406.786539090001</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24881,11 +24363,17 @@
         <v>-2398.985839090002</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24914,11 +24402,17 @@
         <v>-2456.579633930002</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24947,11 +24441,17 @@
         <v>-2465.870734000002</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24980,11 +24480,17 @@
         <v>-2407.944034000002</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -25016,8 +24522,14 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -25046,11 +24558,17 @@
         <v>-2414.127334000002</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -25082,8 +24600,14 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -25115,8 +24639,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -25148,8 +24678,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -25181,8 +24717,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -25214,8 +24756,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -25247,8 +24795,14 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -25280,8 +24834,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -25313,8 +24873,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -25343,11 +24909,17 @@
         <v>-2142.065475850002</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25379,8 +24951,14 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25412,8 +24990,14 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25445,8 +25029,14 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25478,8 +25068,14 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25511,8 +25107,14 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25544,8 +25146,14 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25577,8 +25185,14 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25610,8 +25224,14 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25643,8 +25263,14 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25676,8 +25302,14 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25709,8 +25341,14 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25742,8 +25380,14 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25775,8 +25419,14 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25808,8 +25458,14 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25841,8 +25497,14 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25874,8 +25536,14 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25907,8 +25575,14 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25940,8 +25614,14 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25973,8 +25653,14 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -26006,8 +25692,14 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -26039,8 +25731,14 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -26072,8 +25770,14 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -26105,8 +25809,14 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -26135,13 +25845,19 @@
         <v>-2106.938275850003</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>67200</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L700" t="n">
-        <v>1</v>
+        <v>1.032202380952381</v>
       </c>
       <c r="M700" t="inlineStr"/>
     </row>
@@ -26168,7 +25884,7 @@
         <v>-2277.262475850003</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26201,7 +25917,7 @@
         <v>-2206.004075850003</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26234,7 +25950,7 @@
         <v>-2206.004075850003</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26267,7 +25983,7 @@
         <v>-2095.391375850003</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26300,7 +26016,7 @@
         <v>-2003.585675850003</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26333,7 +26049,7 @@
         <v>-1967.231375850003</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26366,7 +26082,7 @@
         <v>-1882.292775850003</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -26399,7 +26115,7 @@
         <v>-1882.292775850003</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -26432,7 +26148,7 @@
         <v>-2031.513675850003</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -26465,7 +26181,7 @@
         <v>-2050.895675850003</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -26498,7 +26214,7 @@
         <v>-2117.880275850003</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -26531,7 +26247,7 @@
         <v>-2256.847675850003</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -26564,7 +26280,7 @@
         <v>-2265.619975850003</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -26597,7 +26313,7 @@
         <v>-2265.619975850003</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -26630,7 +26346,7 @@
         <v>-2227.696175850003</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -26663,7 +26379,7 @@
         <v>-2185.444775850003</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -26696,7 +26412,7 @@
         <v>-2077.962975850003</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -26729,7 +26445,7 @@
         <v>-1926.922475850003</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -26762,7 +26478,7 @@
         <v>-1926.922475850003</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -26795,7 +26511,7 @@
         <v>-1957.005775850003</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -26828,7 +26544,7 @@
         <v>-2051.871175850003</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -26861,7 +26577,7 @@
         <v>-2051.871175850003</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -26894,7 +26610,7 @@
         <v>-2051.871175850003</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -26927,7 +26643,7 @@
         <v>-2055.599875850003</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -26960,7 +26676,7 @@
         <v>-2055.599875850003</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -26993,7 +26709,7 @@
         <v>-2066.718975850003</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27026,7 +26742,7 @@
         <v>-2122.238875850003</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27059,7 +26775,7 @@
         <v>-2085.556475850003</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27092,7 +26808,7 @@
         <v>-2085.556475850003</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27103,6 +26819,6 @@
       <c r="M729" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest LTC.xlsx
+++ b/BackTest/2019-10-29 BackTest LTC.xlsx
@@ -2266,7 +2266,7 @@
         <v>17.62421718000007</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>40.27031718000007</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3.493017180000074</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>3.541017180000074</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-89.76638281999993</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-93.03708281999994</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-70.91938281999994</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-90.96028281999995</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-90.96028281999995</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-106.9853828199999</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-102.8464828199999</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-90.80158281999995</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-89.80168281999995</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-86.42218281999996</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-86.42218281999996</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-101.61308282</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-158.61308282</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-158.61308282</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-157.25858282</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-161.12148282</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-171.3890828199999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-245.8256828199999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-254.7837828199999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-258.39808282</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-272.24628282</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-273.89628282</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-272.2615828199999</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-251.4061828199999</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-251.47418282</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-249.5619828199999</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-181.5945828199999</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-185.53668282</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-185.27398282</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-175.98918282</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-138.98698282</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-171.56570776</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-169.36910776</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-93.39100775999999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>32.09079224000001</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>49.78539224000001</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>34.86759224000001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>36.91519224000002</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>14.63059224000002</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>14.63059224000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>24.34559224000002</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>6.806592240000015</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>8.051892240000015</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-6.455507759999985</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-6.455507759999985</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-150.97350776</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-154.47040776</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-1537.105843200001</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-1553.562643200001</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-1561.934643200001</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-1561.804643200001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-1573.399643200001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1622.922943200001</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-1626.399043200001</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-1662.504743200001</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-1662.739143200002</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>2084.925556799999</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>2506.921866759998</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-1273.078133240002</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-2421.078133240002</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>2076.921866759998</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>2076.921866759998</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>3619.734766759998</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>3630.702434159999</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>3630.702434159999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>3620.167934159998</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>3568.011534159999</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>3714.888234159998</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>3714.160534159998</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>3542.050734159999</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>3542.050734159999</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>3541.609234159999</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>3541.609234159999</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>3556.457234159999</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>3570.310434159999</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>3620.649334159999</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>3620.250234159999</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>3635.404134159999</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>3688.587134159999</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>3680.889034159999</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>4532.216134159999</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-1252.456765840001</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>137.7483341599989</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>-4581.656564080003</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>-4668.250764080003</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>-4668.250764080003</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17116,14 +17116,10 @@
         <v>-4975.113436160002</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>67500</v>
-      </c>
-      <c r="J507" t="n">
-        <v>67500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
@@ -17153,101 +17149,83 @@
         <v>-4984.768936160002</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>67400</v>
-      </c>
-      <c r="J508" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K508" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
+      <c r="L508" t="n">
+        <v>1</v>
+      </c>
+      <c r="M508" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>67300</v>
+      </c>
+      <c r="C509" t="n">
+        <v>67200</v>
+      </c>
+      <c r="D509" t="n">
+        <v>67300</v>
+      </c>
+      <c r="E509" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F509" t="n">
+        <v>84.10639999999999</v>
+      </c>
+      <c r="G509" t="n">
+        <v>-5068.875336160002</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
+      <c r="L509" t="n">
+        <v>1</v>
+      </c>
+      <c r="M509" t="inlineStr"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>67150</v>
+      </c>
+      <c r="C510" t="n">
+        <v>67350</v>
+      </c>
+      <c r="D510" t="n">
+        <v>67350</v>
+      </c>
+      <c r="E510" t="n">
+        <v>67150</v>
+      </c>
+      <c r="F510" t="n">
+        <v>16.4811</v>
+      </c>
+      <c r="G510" t="n">
+        <v>-5052.394236160002</v>
+      </c>
+      <c r="H510" t="n">
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>67200</v>
+      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L508" t="n">
-        <v>1</v>
-      </c>
-      <c r="M508" t="inlineStr"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>67300</v>
-      </c>
-      <c r="C509" t="n">
-        <v>67200</v>
-      </c>
-      <c r="D509" t="n">
-        <v>67300</v>
-      </c>
-      <c r="E509" t="n">
-        <v>67150</v>
-      </c>
-      <c r="F509" t="n">
-        <v>84.10639999999999</v>
-      </c>
-      <c r="G509" t="n">
-        <v>-5068.875336160002</v>
-      </c>
-      <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>67300</v>
-      </c>
-      <c r="J509" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L509" t="n">
-        <v>1</v>
-      </c>
-      <c r="M509" t="inlineStr"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>67150</v>
-      </c>
-      <c r="C510" t="n">
-        <v>67350</v>
-      </c>
-      <c r="D510" t="n">
-        <v>67350</v>
-      </c>
-      <c r="E510" t="n">
-        <v>67150</v>
-      </c>
-      <c r="F510" t="n">
-        <v>16.4811</v>
-      </c>
-      <c r="G510" t="n">
-        <v>-5052.394236160002</v>
-      </c>
-      <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>67200</v>
-      </c>
-      <c r="J510" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17281,9 +17259,7 @@
       <c r="I511" t="n">
         <v>67350</v>
       </c>
-      <c r="J511" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17322,9 +17298,7 @@
       <c r="I512" t="n">
         <v>67300</v>
       </c>
-      <c r="J512" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17363,9 +17337,7 @@
       <c r="I513" t="n">
         <v>67300</v>
       </c>
-      <c r="J513" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17404,9 +17376,7 @@
       <c r="I514" t="n">
         <v>67300</v>
       </c>
-      <c r="J514" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17445,9 +17415,7 @@
       <c r="I515" t="n">
         <v>67100</v>
       </c>
-      <c r="J515" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17481,12 +17449,12 @@
         <v>-5253.466036160002</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>67450</v>
+      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17520,12 +17488,12 @@
         <v>-5253.002636160002</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>67450</v>
+      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17559,12 +17527,12 @@
         <v>-5231.819636160002</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
         <v>67500</v>
       </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17598,12 +17566,12 @@
         <v>-5202.059036160003</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17637,12 +17605,12 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>67950</v>
+      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17676,12 +17644,12 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17715,12 +17683,12 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17754,12 +17722,12 @@
         <v>-5202.753336160003</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17796,9 +17764,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17835,9 +17801,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17874,9 +17838,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17913,9 +17875,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17952,9 +17912,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17991,9 +17949,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18030,9 +17986,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18069,9 +18023,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18108,9 +18060,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18147,9 +18097,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18186,9 +18134,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18225,9 +18171,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18264,9 +18208,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18303,9 +18245,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18342,9 +18282,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18381,9 +18319,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18420,9 +18356,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18459,9 +18393,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18498,9 +18430,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18537,9 +18467,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18576,9 +18504,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18615,9 +18541,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18654,9 +18578,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18690,12 +18612,12 @@
         <v>-5157.401036160002</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>67850</v>
+      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18729,12 +18651,12 @@
         <v>-5158.901836160002</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>67700</v>
+      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18768,12 +18690,12 @@
         <v>-5137.281236160002</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>67650</v>
+      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18807,12 +18729,12 @@
         <v>-5164.922836160002</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>67800</v>
+      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18846,12 +18768,12 @@
         <v>-5164.922836160002</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>67700</v>
+      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18885,12 +18807,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>67700</v>
+      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18924,12 +18846,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18963,12 +18885,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19002,12 +18924,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19041,12 +18963,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19080,12 +19002,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19119,12 +19041,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19158,12 +19080,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19197,12 +19119,12 @@
         <v>-5167.337836160002</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19236,12 +19158,12 @@
         <v>-5165.274736160001</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>67600</v>
+      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19275,12 +19197,12 @@
         <v>-5165.274736160001</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>67700</v>
+      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19314,12 +19236,12 @@
         <v>-5155.386536160001</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>67700</v>
+      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19353,12 +19275,12 @@
         <v>-4626.797636160001</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
+        <v>67750</v>
+      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19392,12 +19314,12 @@
         <v>-4626.557636160001</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>67900</v>
+      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19431,12 +19353,12 @@
         <v>-4528.172936160002</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>67950</v>
+      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19470,12 +19392,12 @@
         <v>-4414.935536160002</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>68000</v>
+      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19509,12 +19431,12 @@
         <v>-4414.935536160002</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>68100</v>
+      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19548,12 +19470,12 @@
         <v>-4309.672536160002</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>67500</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>68100</v>
+      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19590,9 +19512,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19629,9 +19549,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19668,9 +19586,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>67500</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19704,2858 +19620,3198 @@
         <v>-4180.778336160001</v>
       </c>
       <c r="H573" t="n">
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L573" t="n">
+        <v>1</v>
+      </c>
+      <c r="M573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="1" t="n">
+        <v>572</v>
+      </c>
+      <c r="B574" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C574" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D574" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E574" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F574" t="n">
+        <v>3</v>
+      </c>
+      <c r="G574" t="n">
+        <v>-4183.778336160001</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L574" t="n">
+        <v>1</v>
+      </c>
+      <c r="M574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C575" t="n">
+        <v>68250</v>
+      </c>
+      <c r="D575" t="n">
+        <v>68250</v>
+      </c>
+      <c r="E575" t="n">
+        <v>68250</v>
+      </c>
+      <c r="F575" t="n">
+        <v>40.136</v>
+      </c>
+      <c r="G575" t="n">
+        <v>-4143.642336160001</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L575" t="n">
+        <v>1</v>
+      </c>
+      <c r="M575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C576" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D576" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E576" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G576" t="n">
+        <v>-4143.842336160001</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L576" t="n">
+        <v>1</v>
+      </c>
+      <c r="M576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C577" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D577" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E577" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F577" t="n">
+        <v>3.6644</v>
+      </c>
+      <c r="G577" t="n">
+        <v>-4143.842336160001</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L577" t="n">
+        <v>1</v>
+      </c>
+      <c r="M577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C578" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D578" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E578" t="n">
+        <v>68250</v>
+      </c>
+      <c r="F578" t="n">
+        <v>271.9412</v>
+      </c>
+      <c r="G578" t="n">
+        <v>-3871.901136160001</v>
+      </c>
+      <c r="H578" t="n">
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L578" t="n">
+        <v>1</v>
+      </c>
+      <c r="M578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C579" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D579" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E579" t="n">
+        <v>68350</v>
+      </c>
+      <c r="F579" t="n">
+        <v>316.5505</v>
+      </c>
+      <c r="G579" t="n">
+        <v>-3555.350636160001</v>
+      </c>
+      <c r="H579" t="n">
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L579" t="n">
+        <v>1</v>
+      </c>
+      <c r="M579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C580" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D580" t="n">
+        <v>68400</v>
+      </c>
+      <c r="E580" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F580" t="n">
+        <v>7.3534</v>
+      </c>
+      <c r="G580" t="n">
+        <v>-3562.704036160001</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L580" t="n">
+        <v>1</v>
+      </c>
+      <c r="M580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C581" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D581" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E581" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F581" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="G581" t="n">
+        <v>-3572.434036160001</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L581" t="n">
+        <v>1</v>
+      </c>
+      <c r="M581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C582" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D582" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E582" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F582" t="n">
+        <v>128.4473</v>
+      </c>
+      <c r="G582" t="n">
+        <v>-3443.986736160001</v>
+      </c>
+      <c r="H582" t="n">
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L582" t="n">
+        <v>1</v>
+      </c>
+      <c r="M582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C583" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D583" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E583" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F583" t="n">
+        <v>50.6972</v>
+      </c>
+      <c r="G583" t="n">
+        <v>-3393.289536160001</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L583" t="n">
+        <v>1</v>
+      </c>
+      <c r="M583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>68300</v>
+      </c>
+      <c r="C584" t="n">
+        <v>68300</v>
+      </c>
+      <c r="D584" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E584" t="n">
+        <v>68300</v>
+      </c>
+      <c r="F584" t="n">
+        <v>13.836</v>
+      </c>
+      <c r="G584" t="n">
+        <v>-3393.289536160001</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L584" t="n">
+        <v>1</v>
+      </c>
+      <c r="M584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E585" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F585" t="n">
+        <v>19.392</v>
+      </c>
+      <c r="G585" t="n">
+        <v>-3412.681536160001</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L585" t="n">
+        <v>1</v>
+      </c>
+      <c r="M585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C586" t="n">
+        <v>68050</v>
+      </c>
+      <c r="D586" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E586" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F586" t="n">
+        <v>91.8111</v>
+      </c>
+      <c r="G586" t="n">
+        <v>-3504.492636160001</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L586" t="n">
+        <v>1</v>
+      </c>
+      <c r="M586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C587" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D587" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E587" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F587" t="n">
+        <v>54.5069</v>
+      </c>
+      <c r="G587" t="n">
+        <v>-3449.985736160001</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L587" t="n">
+        <v>1</v>
+      </c>
+      <c r="M587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>68200</v>
+      </c>
+      <c r="C588" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D588" t="n">
+        <v>68300</v>
+      </c>
+      <c r="E588" t="n">
+        <v>68200</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1.207</v>
+      </c>
+      <c r="G588" t="n">
+        <v>-3448.778736160001</v>
+      </c>
+      <c r="H588" t="n">
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L588" t="n">
+        <v>1</v>
+      </c>
+      <c r="M588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C589" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D589" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E589" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.8321</v>
+      </c>
+      <c r="G589" t="n">
+        <v>-3449.610836160001</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L589" t="n">
+        <v>1</v>
+      </c>
+      <c r="M589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C590" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D590" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E590" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F590" t="n">
+        <v>48.4189</v>
+      </c>
+      <c r="G590" t="n">
+        <v>-3449.610836160001</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L590" t="n">
+        <v>1</v>
+      </c>
+      <c r="M590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C591" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D591" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E591" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F591" t="n">
+        <v>2.0184</v>
+      </c>
+      <c r="G591" t="n">
+        <v>-3449.610836160001</v>
+      </c>
+      <c r="H591" t="n">
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L591" t="n">
+        <v>1</v>
+      </c>
+      <c r="M591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C592" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D592" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E592" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F592" t="n">
+        <v>2.7869</v>
+      </c>
+      <c r="G592" t="n">
+        <v>-3449.610836160001</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L592" t="n">
+        <v>1</v>
+      </c>
+      <c r="M592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C593" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D593" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E593" t="n">
+        <v>68050</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0.4794</v>
+      </c>
+      <c r="G593" t="n">
+        <v>-3449.610836160001</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L593" t="n">
+        <v>1</v>
+      </c>
+      <c r="M593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C594" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D594" t="n">
+        <v>68050</v>
+      </c>
+      <c r="E594" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F594" t="n">
+        <v>110.7605</v>
+      </c>
+      <c r="G594" t="n">
+        <v>-3560.371336160001</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L594" t="n">
+        <v>1</v>
+      </c>
+      <c r="M594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C595" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D595" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E595" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F595" t="n">
+        <v>21.7425</v>
+      </c>
+      <c r="G595" t="n">
+        <v>-3582.113836160001</v>
+      </c>
+      <c r="H595" t="n">
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L595" t="n">
+        <v>1</v>
+      </c>
+      <c r="M595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C596" t="n">
+        <v>68200</v>
+      </c>
+      <c r="D596" t="n">
+        <v>68200</v>
+      </c>
+      <c r="E596" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F596" t="n">
+        <v>45.0795</v>
+      </c>
+      <c r="G596" t="n">
+        <v>-3537.034336160001</v>
+      </c>
+      <c r="H596" t="n">
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L596" t="n">
+        <v>1</v>
+      </c>
+      <c r="M596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C597" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D597" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E597" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F597" t="n">
+        <v>16.005</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-3553.039336160001</v>
+      </c>
+      <c r="H597" t="n">
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L597" t="n">
+        <v>1</v>
+      </c>
+      <c r="M597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C598" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D598" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E598" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-3553.039336160001</v>
+      </c>
+      <c r="H598" t="n">
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
+      <c r="M598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C599" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D599" t="n">
+        <v>68150</v>
+      </c>
+      <c r="E599" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F599" t="n">
+        <v>4.5563</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-3548.483036160001</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L599" t="n">
+        <v>1</v>
+      </c>
+      <c r="M599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>68150</v>
+      </c>
+      <c r="C600" t="n">
+        <v>68150</v>
+      </c>
+      <c r="D600" t="n">
+        <v>68150</v>
+      </c>
+      <c r="E600" t="n">
+        <v>68150</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1.2961</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-3548.483036160001</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L600" t="n">
+        <v>1</v>
+      </c>
+      <c r="M600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C601" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D601" t="n">
+        <v>68250</v>
+      </c>
+      <c r="E601" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F601" t="n">
+        <v>14.2024</v>
+      </c>
+      <c r="G601" t="n">
+        <v>-3562.685436160001</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L601" t="n">
+        <v>1</v>
+      </c>
+      <c r="M601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C602" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D602" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E602" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F602" t="n">
+        <v>45.1962</v>
+      </c>
+      <c r="G602" t="n">
+        <v>-3562.685436160001</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L602" t="n">
+        <v>1</v>
+      </c>
+      <c r="M602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C603" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D603" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E603" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F603" t="n">
+        <v>19.8964</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-3582.581836160001</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L603" t="n">
+        <v>1</v>
+      </c>
+      <c r="M603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C604" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D604" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E604" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F604" t="n">
+        <v>100</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-3482.581836160001</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L604" t="n">
+        <v>1</v>
+      </c>
+      <c r="M604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>68050</v>
+      </c>
+      <c r="C605" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D605" t="n">
+        <v>68050</v>
+      </c>
+      <c r="E605" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F605" t="n">
+        <v>4.5145</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-3482.581836160001</v>
+      </c>
+      <c r="H605" t="n">
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L605" t="n">
+        <v>1</v>
+      </c>
+      <c r="M605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C606" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D606" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E606" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F606" t="n">
+        <v>9.330500000000001</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-3491.912336160001</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L606" t="n">
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C607" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D607" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E607" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F607" t="n">
+        <v>78.5074</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-3413.404936160001</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L607" t="n">
+        <v>1</v>
+      </c>
+      <c r="M607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C608" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D608" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E608" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F608" t="n">
+        <v>78.56010000000001</v>
+      </c>
+      <c r="G608" t="n">
+        <v>-3491.965036160001</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L608" t="n">
+        <v>1</v>
+      </c>
+      <c r="M608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>67850</v>
+      </c>
+      <c r="C609" t="n">
+        <v>67850</v>
+      </c>
+      <c r="D609" t="n">
+        <v>67850</v>
+      </c>
+      <c r="E609" t="n">
+        <v>67850</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0.6464</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-3492.611436160001</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L609" t="n">
+        <v>1</v>
+      </c>
+      <c r="M609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C610" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D610" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E610" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F610" t="n">
+        <v>9.9419</v>
+      </c>
+      <c r="G610" t="n">
+        <v>-3482.669536160001</v>
+      </c>
+      <c r="H610" t="n">
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L610" t="n">
+        <v>1</v>
+      </c>
+      <c r="M610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C611" t="n">
+        <v>67700</v>
+      </c>
+      <c r="D611" t="n">
+        <v>67700</v>
+      </c>
+      <c r="E611" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1.7296</v>
+      </c>
+      <c r="G611" t="n">
+        <v>-3484.399136160001</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L611" t="n">
+        <v>1</v>
+      </c>
+      <c r="M611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C612" t="n">
+        <v>67700</v>
+      </c>
+      <c r="D612" t="n">
+        <v>67700</v>
+      </c>
+      <c r="E612" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F612" t="n">
+        <v>256.0349</v>
+      </c>
+      <c r="G612" t="n">
+        <v>-3484.399136160001</v>
+      </c>
+      <c r="H612" t="n">
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L612" t="n">
+        <v>1</v>
+      </c>
+      <c r="M612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>67800</v>
+      </c>
+      <c r="C613" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D613" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E613" t="n">
+        <v>67700</v>
+      </c>
+      <c r="F613" t="n">
+        <v>165.6517</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-3318.747436160002</v>
+      </c>
+      <c r="H613" t="n">
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L613" t="n">
+        <v>1</v>
+      </c>
+      <c r="M613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C614" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D614" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E614" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F614" t="n">
+        <v>104.3942</v>
+      </c>
+      <c r="G614" t="n">
+        <v>-3214.353236160001</v>
+      </c>
+      <c r="H614" t="n">
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L614" t="n">
+        <v>1</v>
+      </c>
+      <c r="M614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C615" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D615" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E615" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.4485</v>
+      </c>
+      <c r="G615" t="n">
+        <v>-3214.801736160001</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L615" t="n">
+        <v>1</v>
+      </c>
+      <c r="M615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>67950</v>
+      </c>
+      <c r="C616" t="n">
+        <v>67950</v>
+      </c>
+      <c r="D616" t="n">
+        <v>67950</v>
+      </c>
+      <c r="E616" t="n">
+        <v>67950</v>
+      </c>
+      <c r="F616" t="n">
+        <v>5.1646</v>
+      </c>
+      <c r="G616" t="n">
+        <v>-3214.801736160001</v>
+      </c>
+      <c r="H616" t="n">
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L616" t="n">
+        <v>1</v>
+      </c>
+      <c r="M616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C617" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D617" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E617" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F617" t="n">
+        <v>7.3754</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-3222.177136160001</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L617" t="n">
+        <v>1</v>
+      </c>
+      <c r="M617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C618" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D618" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E618" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0.9922</v>
+      </c>
+      <c r="G618" t="n">
+        <v>-3222.177136160001</v>
+      </c>
+      <c r="H618" t="n">
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L618" t="n">
+        <v>1</v>
+      </c>
+      <c r="M618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C619" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D619" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E619" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F619" t="n">
+        <v>18.6847</v>
+      </c>
+      <c r="G619" t="n">
+        <v>-3222.177136160001</v>
+      </c>
+      <c r="H619" t="n">
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L619" t="n">
+        <v>1</v>
+      </c>
+      <c r="M619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C620" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D620" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E620" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F620" t="n">
+        <v>5.9662</v>
+      </c>
+      <c r="G620" t="n">
+        <v>-3216.210936160001</v>
+      </c>
+      <c r="H620" t="n">
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L620" t="n">
+        <v>1</v>
+      </c>
+      <c r="M620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C621" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D621" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E621" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F621" t="n">
+        <v>3.8445</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-3216.210936160001</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L621" t="n">
+        <v>1</v>
+      </c>
+      <c r="M621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C622" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D622" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E622" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F622" t="n">
+        <v>7.3746</v>
+      </c>
+      <c r="G622" t="n">
+        <v>-3223.585536160002</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L622" t="n">
+        <v>1</v>
+      </c>
+      <c r="M622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C623" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D623" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E623" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F623" t="n">
+        <v>23.1923</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-3200.393236160001</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L623" t="n">
+        <v>1</v>
+      </c>
+      <c r="M623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C624" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D624" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E624" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F624" t="n">
+        <v>4.5322</v>
+      </c>
+      <c r="G624" t="n">
+        <v>-3204.925436160001</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L624" t="n">
+        <v>1</v>
+      </c>
+      <c r="M624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C625" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D625" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E625" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F625" t="n">
+        <v>27.9058</v>
+      </c>
+      <c r="G625" t="n">
+        <v>-3177.019636160001</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L625" t="n">
+        <v>1</v>
+      </c>
+      <c r="M625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C626" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D626" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E626" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F626" t="n">
+        <v>4.9875</v>
+      </c>
+      <c r="G626" t="n">
+        <v>-3182.007136160002</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C627" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D627" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E627" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F627" t="n">
+        <v>14.893</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-3182.007136160002</v>
+      </c>
+      <c r="H627" t="n">
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L627" t="n">
+        <v>1</v>
+      </c>
+      <c r="M627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>67900</v>
+      </c>
+      <c r="C628" t="n">
+        <v>67900</v>
+      </c>
+      <c r="D628" t="n">
+        <v>67900</v>
+      </c>
+      <c r="E628" t="n">
+        <v>67900</v>
+      </c>
+      <c r="F628" t="n">
+        <v>41.4331</v>
+      </c>
+      <c r="G628" t="n">
+        <v>-3182.007136160002</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L628" t="n">
+        <v>1</v>
+      </c>
+      <c r="M628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>67800</v>
+      </c>
+      <c r="C629" t="n">
+        <v>67750</v>
+      </c>
+      <c r="D629" t="n">
+        <v>67800</v>
+      </c>
+      <c r="E629" t="n">
+        <v>67750</v>
+      </c>
+      <c r="F629" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="G629" t="n">
+        <v>-3200.827136160002</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C630" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D630" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E630" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0.8455</v>
+      </c>
+      <c r="G630" t="n">
+        <v>-3199.981636160002</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L630" t="n">
+        <v>1</v>
+      </c>
+      <c r="M630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>68000</v>
+      </c>
+      <c r="C631" t="n">
+        <v>68000</v>
+      </c>
+      <c r="D631" t="n">
+        <v>68000</v>
+      </c>
+      <c r="E631" t="n">
+        <v>68000</v>
+      </c>
+      <c r="F631" t="n">
+        <v>71.2487</v>
+      </c>
+      <c r="G631" t="n">
+        <v>-3199.981636160002</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L631" t="n">
+        <v>1</v>
+      </c>
+      <c r="M631" t="inlineStr"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C632" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D632" t="n">
+        <v>68100</v>
+      </c>
+      <c r="E632" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0.0289</v>
+      </c>
+      <c r="G632" t="n">
+        <v>-3199.952736160002</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L632" t="n">
+        <v>1</v>
+      </c>
+      <c r="M632" t="inlineStr"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>68100</v>
+      </c>
+      <c r="C633" t="n">
+        <v>68100</v>
+      </c>
+      <c r="D633" t="n">
+        <v>68250</v>
+      </c>
+      <c r="E633" t="n">
+        <v>68100</v>
+      </c>
+      <c r="F633" t="n">
+        <v>78.89610293</v>
+      </c>
+      <c r="G633" t="n">
+        <v>-3199.952736160002</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L633" t="n">
+        <v>1</v>
+      </c>
+      <c r="M633" t="inlineStr"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>68250</v>
+      </c>
+      <c r="C634" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D634" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E634" t="n">
+        <v>68250</v>
+      </c>
+      <c r="F634" t="n">
+        <v>18.69159707</v>
+      </c>
+      <c r="G634" t="n">
+        <v>-3181.261139090002</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L634" t="n">
+        <v>1</v>
+      </c>
+      <c r="M634" t="inlineStr"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C635" t="n">
+        <v>68400</v>
+      </c>
+      <c r="D635" t="n">
+        <v>68400</v>
+      </c>
+      <c r="E635" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="G635" t="n">
+        <v>-3182.116139090002</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L635" t="n">
+        <v>1</v>
+      </c>
+      <c r="M635" t="inlineStr"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C636" t="n">
+        <v>68400</v>
+      </c>
+      <c r="D636" t="n">
+        <v>68400</v>
+      </c>
+      <c r="E636" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F636" t="n">
+        <v>132.7366</v>
+      </c>
+      <c r="G636" t="n">
+        <v>-3182.116139090002</v>
+      </c>
+      <c r="H636" t="n">
+        <v>0</v>
+      </c>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L636" t="n">
+        <v>1</v>
+      </c>
+      <c r="M636" t="inlineStr"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C637" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D637" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E637" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.4758</v>
+      </c>
+      <c r="G637" t="n">
+        <v>-3181.640339090002</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L637" t="n">
+        <v>1</v>
+      </c>
+      <c r="M637" t="inlineStr"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C638" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D638" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E638" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="G638" t="n">
+        <v>-3181.752339090002</v>
+      </c>
+      <c r="H638" t="n">
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L638" t="n">
+        <v>1</v>
+      </c>
+      <c r="M638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C639" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D639" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E639" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F639" t="n">
+        <v>10.7881</v>
+      </c>
+      <c r="G639" t="n">
+        <v>-3170.964239090002</v>
+      </c>
+      <c r="H639" t="n">
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L639" t="n">
+        <v>1</v>
+      </c>
+      <c r="M639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>68600</v>
+      </c>
+      <c r="C640" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D640" t="n">
+        <v>68600</v>
+      </c>
+      <c r="E640" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F640" t="n">
+        <v>79.1733</v>
+      </c>
+      <c r="G640" t="n">
+        <v>-3170.964239090002</v>
+      </c>
+      <c r="H640" t="n">
+        <v>0</v>
+      </c>
+      <c r="I640" t="inlineStr"/>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
+      <c r="M640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C641" t="n">
+        <v>68600</v>
+      </c>
+      <c r="D641" t="n">
+        <v>68600</v>
+      </c>
+      <c r="E641" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1.7089</v>
+      </c>
+      <c r="G641" t="n">
+        <v>-3169.255339090002</v>
+      </c>
+      <c r="H641" t="n">
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L641" t="n">
+        <v>1</v>
+      </c>
+      <c r="M641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C642" t="n">
+        <v>68500</v>
+      </c>
+      <c r="D642" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E642" t="n">
+        <v>68500</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.0497</v>
+      </c>
+      <c r="G642" t="n">
+        <v>-3169.305039090002</v>
+      </c>
+      <c r="H642" t="n">
+        <v>0</v>
+      </c>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L642" t="n">
+        <v>1</v>
+      </c>
+      <c r="M642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>68500</v>
+      </c>
+      <c r="C643" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D643" t="n">
+        <v>68500</v>
+      </c>
+      <c r="E643" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F643" t="n">
+        <v>11.7708</v>
+      </c>
+      <c r="G643" t="n">
+        <v>-3181.075839090001</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="inlineStr"/>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L643" t="n">
+        <v>1</v>
+      </c>
+      <c r="M643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C644" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D644" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E644" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F644" t="n">
+        <v>64.2972</v>
+      </c>
+      <c r="G644" t="n">
+        <v>-3181.075839090001</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="inlineStr"/>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L644" t="n">
+        <v>1</v>
+      </c>
+      <c r="M644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>68450</v>
+      </c>
+      <c r="C645" t="n">
+        <v>68450</v>
+      </c>
+      <c r="D645" t="n">
+        <v>68450</v>
+      </c>
+      <c r="E645" t="n">
+        <v>68450</v>
+      </c>
+      <c r="F645" t="n">
+        <v>8.4229</v>
+      </c>
+      <c r="G645" t="n">
+        <v>-3181.075839090001</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="inlineStr"/>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L645" t="n">
+        <v>1</v>
+      </c>
+      <c r="M645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C646" t="n">
+        <v>68400</v>
+      </c>
+      <c r="D646" t="n">
+        <v>68400</v>
+      </c>
+      <c r="E646" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F646" t="n">
+        <v>17.5453</v>
+      </c>
+      <c r="G646" t="n">
+        <v>-3198.621139090002</v>
+      </c>
+      <c r="H646" t="n">
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L646" t="n">
+        <v>1</v>
+      </c>
+      <c r="M646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C647" t="n">
+        <v>68400</v>
+      </c>
+      <c r="D647" t="n">
+        <v>68400</v>
+      </c>
+      <c r="E647" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F647" t="n">
+        <v>10.043</v>
+      </c>
+      <c r="G647" t="n">
+        <v>-3198.621139090002</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L647" t="n">
+        <v>1</v>
+      </c>
+      <c r="M647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>68400</v>
+      </c>
+      <c r="C648" t="n">
+        <v>68600</v>
+      </c>
+      <c r="D648" t="n">
+        <v>68600</v>
+      </c>
+      <c r="E648" t="n">
+        <v>68400</v>
+      </c>
+      <c r="F648" t="n">
+        <v>105.705</v>
+      </c>
+      <c r="G648" t="n">
+        <v>-3092.916139090002</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L648" t="n">
+        <v>1</v>
+      </c>
+      <c r="M648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>68700</v>
+      </c>
+      <c r="C649" t="n">
+        <v>68650</v>
+      </c>
+      <c r="D649" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E649" t="n">
+        <v>68600</v>
+      </c>
+      <c r="F649" t="n">
+        <v>231.8359</v>
+      </c>
+      <c r="G649" t="n">
+        <v>-2861.080239090002</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L649" t="n">
+        <v>1</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>68700</v>
+      </c>
+      <c r="C650" t="n">
+        <v>68700</v>
+      </c>
+      <c r="D650" t="n">
+        <v>68700</v>
+      </c>
+      <c r="E650" t="n">
+        <v>68700</v>
+      </c>
+      <c r="F650" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="G650" t="n">
+        <v>-2857.271239090001</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C651" t="n">
+        <v>69000</v>
+      </c>
+      <c r="D651" t="n">
+        <v>69100</v>
+      </c>
+      <c r="E651" t="n">
+        <v>68800</v>
+      </c>
+      <c r="F651" t="n">
+        <v>177.4653</v>
+      </c>
+      <c r="G651" t="n">
+        <v>-2679.805939090002</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C652" t="n">
+        <v>68850</v>
+      </c>
+      <c r="D652" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E652" t="n">
+        <v>68800</v>
+      </c>
+      <c r="F652" t="n">
+        <v>21.9432</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-2701.749139090002</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>68800</v>
+      </c>
+      <c r="C653" t="n">
+        <v>68850</v>
+      </c>
+      <c r="D653" t="n">
+        <v>69000</v>
+      </c>
+      <c r="E653" t="n">
+        <v>68800</v>
+      </c>
+      <c r="F653" t="n">
+        <v>156.0945</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-2701.749139090002</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C654" t="n">
+        <v>69050</v>
+      </c>
+      <c r="D654" t="n">
+        <v>69050</v>
+      </c>
+      <c r="E654" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0.0118</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-2701.737339090002</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>69050</v>
+      </c>
+      <c r="C655" t="n">
+        <v>69500</v>
+      </c>
+      <c r="D655" t="n">
+        <v>69500</v>
+      </c>
+      <c r="E655" t="n">
+        <v>69050</v>
+      </c>
+      <c r="F655" t="n">
+        <v>223.682</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-2478.055339090002</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>69500</v>
+      </c>
+      <c r="C656" t="n">
+        <v>69500</v>
+      </c>
+      <c r="D656" t="n">
+        <v>69550</v>
+      </c>
+      <c r="E656" t="n">
+        <v>69300</v>
+      </c>
+      <c r="F656" t="n">
+        <v>448.7417</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-2478.055339090002</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>69400</v>
+      </c>
+      <c r="C657" t="n">
+        <v>69750</v>
+      </c>
+      <c r="D657" t="n">
+        <v>69800</v>
+      </c>
+      <c r="E657" t="n">
+        <v>69400</v>
+      </c>
+      <c r="F657" t="n">
+        <v>67.7514</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-2410.303939090002</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>69750</v>
+      </c>
+      <c r="C658" t="n">
+        <v>69550</v>
+      </c>
+      <c r="D658" t="n">
+        <v>69750</v>
+      </c>
+      <c r="E658" t="n">
+        <v>69550</v>
+      </c>
+      <c r="F658" t="n">
+        <v>53.2248</v>
+      </c>
+      <c r="G658" t="n">
+        <v>-2463.528739090002</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>69550</v>
+      </c>
+      <c r="C659" t="n">
+        <v>69600</v>
+      </c>
+      <c r="D659" t="n">
+        <v>69600</v>
+      </c>
+      <c r="E659" t="n">
+        <v>69550</v>
+      </c>
+      <c r="F659" t="n">
+        <v>44.598</v>
+      </c>
+      <c r="G659" t="n">
+        <v>-2418.930739090002</v>
+      </c>
+      <c r="H659" t="n">
         <v>2</v>
       </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>67500</v>
-      </c>
-      <c r="K573" t="inlineStr">
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L573" t="n">
-        <v>1.00537037037037</v>
-      </c>
-      <c r="M573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C574" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D574" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E574" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F574" t="n">
-        <v>3</v>
-      </c>
-      <c r="G574" t="n">
-        <v>-4183.778336160001</v>
-      </c>
-      <c r="H574" t="n">
-        <v>2</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
-      <c r="L574" t="n">
-        <v>1</v>
-      </c>
-      <c r="M574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>68250</v>
-      </c>
-      <c r="C575" t="n">
-        <v>68250</v>
-      </c>
-      <c r="D575" t="n">
-        <v>68250</v>
-      </c>
-      <c r="E575" t="n">
-        <v>68250</v>
-      </c>
-      <c r="F575" t="n">
-        <v>40.136</v>
-      </c>
-      <c r="G575" t="n">
-        <v>-4143.642336160001</v>
-      </c>
-      <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
-      <c r="L575" t="n">
-        <v>1</v>
-      </c>
-      <c r="M575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C576" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D576" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E576" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F576" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G576" t="n">
-        <v>-4143.842336160001</v>
-      </c>
-      <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
-      <c r="L576" t="n">
-        <v>1</v>
-      </c>
-      <c r="M576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C577" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D577" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E577" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F577" t="n">
-        <v>3.6644</v>
-      </c>
-      <c r="G577" t="n">
-        <v>-4143.842336160001</v>
-      </c>
-      <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
-      <c r="L577" t="n">
-        <v>1</v>
-      </c>
-      <c r="M577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>68250</v>
-      </c>
-      <c r="C578" t="n">
-        <v>68300</v>
-      </c>
-      <c r="D578" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E578" t="n">
-        <v>68250</v>
-      </c>
-      <c r="F578" t="n">
-        <v>271.9412</v>
-      </c>
-      <c r="G578" t="n">
-        <v>-3871.901136160001</v>
-      </c>
-      <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
-      <c r="L578" t="n">
-        <v>1</v>
-      </c>
-      <c r="M578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>68500</v>
-      </c>
-      <c r="C579" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D579" t="n">
-        <v>68700</v>
-      </c>
-      <c r="E579" t="n">
-        <v>68350</v>
-      </c>
-      <c r="F579" t="n">
-        <v>316.5505</v>
-      </c>
-      <c r="G579" t="n">
-        <v>-3555.350636160001</v>
-      </c>
-      <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
-      <c r="L579" t="n">
-        <v>1</v>
-      </c>
-      <c r="M579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>68400</v>
-      </c>
-      <c r="C580" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D580" t="n">
-        <v>68400</v>
-      </c>
-      <c r="E580" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F580" t="n">
-        <v>7.3534</v>
-      </c>
-      <c r="G580" t="n">
-        <v>-3562.704036160001</v>
-      </c>
-      <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
-      <c r="L580" t="n">
-        <v>1</v>
-      </c>
-      <c r="M580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C581" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D581" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E581" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F581" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="G581" t="n">
-        <v>-3572.434036160001</v>
-      </c>
-      <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
-      <c r="L581" t="n">
-        <v>1</v>
-      </c>
-      <c r="M581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C582" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D582" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E582" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F582" t="n">
-        <v>128.4473</v>
-      </c>
-      <c r="G582" t="n">
-        <v>-3443.986736160001</v>
-      </c>
-      <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
-      <c r="L582" t="n">
-        <v>1</v>
-      </c>
-      <c r="M582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>68300</v>
-      </c>
-      <c r="C583" t="n">
-        <v>68300</v>
-      </c>
-      <c r="D583" t="n">
-        <v>68300</v>
-      </c>
-      <c r="E583" t="n">
-        <v>68300</v>
-      </c>
-      <c r="F583" t="n">
-        <v>50.6972</v>
-      </c>
-      <c r="G583" t="n">
-        <v>-3393.289536160001</v>
-      </c>
-      <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
-      <c r="L583" t="n">
-        <v>1</v>
-      </c>
-      <c r="M583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>68300</v>
-      </c>
-      <c r="C584" t="n">
-        <v>68300</v>
-      </c>
-      <c r="D584" t="n">
-        <v>68300</v>
-      </c>
-      <c r="E584" t="n">
-        <v>68300</v>
-      </c>
-      <c r="F584" t="n">
-        <v>13.836</v>
-      </c>
-      <c r="G584" t="n">
-        <v>-3393.289536160001</v>
-      </c>
-      <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
-      <c r="L584" t="n">
-        <v>1</v>
-      </c>
-      <c r="M584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C585" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D585" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E585" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F585" t="n">
-        <v>19.392</v>
-      </c>
-      <c r="G585" t="n">
-        <v>-3412.681536160001</v>
-      </c>
-      <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
-      <c r="L585" t="n">
-        <v>1</v>
-      </c>
-      <c r="M585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C586" t="n">
-        <v>68050</v>
-      </c>
-      <c r="D586" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E586" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F586" t="n">
-        <v>91.8111</v>
-      </c>
-      <c r="G586" t="n">
-        <v>-3504.492636160001</v>
-      </c>
-      <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
-      <c r="L586" t="n">
-        <v>1</v>
-      </c>
-      <c r="M586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>68050</v>
-      </c>
-      <c r="C587" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D587" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E587" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F587" t="n">
-        <v>54.5069</v>
-      </c>
-      <c r="G587" t="n">
-        <v>-3449.985736160001</v>
-      </c>
-      <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
-      <c r="L587" t="n">
-        <v>1</v>
-      </c>
-      <c r="M587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>68200</v>
-      </c>
-      <c r="C588" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D588" t="n">
-        <v>68300</v>
-      </c>
-      <c r="E588" t="n">
-        <v>68200</v>
-      </c>
-      <c r="F588" t="n">
-        <v>1.207</v>
-      </c>
-      <c r="G588" t="n">
-        <v>-3448.778736160001</v>
-      </c>
-      <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
-      <c r="L588" t="n">
-        <v>1</v>
-      </c>
-      <c r="M588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C589" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D589" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E589" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F589" t="n">
-        <v>0.8321</v>
-      </c>
-      <c r="G589" t="n">
-        <v>-3449.610836160001</v>
-      </c>
-      <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
-      <c r="L589" t="n">
-        <v>1</v>
-      </c>
-      <c r="M589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C590" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D590" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E590" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F590" t="n">
-        <v>48.4189</v>
-      </c>
-      <c r="G590" t="n">
-        <v>-3449.610836160001</v>
-      </c>
-      <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
-      <c r="L590" t="n">
-        <v>1</v>
-      </c>
-      <c r="M590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C591" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D591" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E591" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F591" t="n">
-        <v>2.0184</v>
-      </c>
-      <c r="G591" t="n">
-        <v>-3449.610836160001</v>
-      </c>
-      <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
-      <c r="L591" t="n">
-        <v>1</v>
-      </c>
-      <c r="M591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C592" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D592" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E592" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F592" t="n">
-        <v>2.7869</v>
-      </c>
-      <c r="G592" t="n">
-        <v>-3449.610836160001</v>
-      </c>
-      <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="n">
-        <v>1</v>
-      </c>
-      <c r="M592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>68050</v>
-      </c>
-      <c r="C593" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D593" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E593" t="n">
-        <v>68050</v>
-      </c>
-      <c r="F593" t="n">
-        <v>0.4794</v>
-      </c>
-      <c r="G593" t="n">
-        <v>-3449.610836160001</v>
-      </c>
-      <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="n">
-        <v>1</v>
-      </c>
-      <c r="M593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>68050</v>
-      </c>
-      <c r="C594" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D594" t="n">
-        <v>68050</v>
-      </c>
-      <c r="E594" t="n">
-        <v>67950</v>
-      </c>
-      <c r="F594" t="n">
-        <v>110.7605</v>
-      </c>
-      <c r="G594" t="n">
-        <v>-3560.371336160001</v>
-      </c>
-      <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="n">
-        <v>1</v>
-      </c>
-      <c r="M594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C595" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D595" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E595" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F595" t="n">
-        <v>21.7425</v>
-      </c>
-      <c r="G595" t="n">
-        <v>-3582.113836160001</v>
-      </c>
-      <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="n">
-        <v>1</v>
-      </c>
-      <c r="M595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C596" t="n">
-        <v>68200</v>
-      </c>
-      <c r="D596" t="n">
-        <v>68200</v>
-      </c>
-      <c r="E596" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F596" t="n">
-        <v>45.0795</v>
-      </c>
-      <c r="G596" t="n">
-        <v>-3537.034336160001</v>
-      </c>
-      <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="n">
-        <v>1</v>
-      </c>
-      <c r="M596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C597" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D597" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E597" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F597" t="n">
-        <v>16.005</v>
-      </c>
-      <c r="G597" t="n">
-        <v>-3553.039336160001</v>
-      </c>
-      <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="n">
-        <v>1</v>
-      </c>
-      <c r="M597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C598" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D598" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E598" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F598" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="G598" t="n">
-        <v>-3553.039336160001</v>
-      </c>
-      <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="n">
-        <v>1</v>
-      </c>
-      <c r="M598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C599" t="n">
-        <v>68150</v>
-      </c>
-      <c r="D599" t="n">
-        <v>68150</v>
-      </c>
-      <c r="E599" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F599" t="n">
-        <v>4.5563</v>
-      </c>
-      <c r="G599" t="n">
-        <v>-3548.483036160001</v>
-      </c>
-      <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="n">
-        <v>1</v>
-      </c>
-      <c r="M599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>68150</v>
-      </c>
-      <c r="C600" t="n">
-        <v>68150</v>
-      </c>
-      <c r="D600" t="n">
-        <v>68150</v>
-      </c>
-      <c r="E600" t="n">
-        <v>68150</v>
-      </c>
-      <c r="F600" t="n">
-        <v>1.2961</v>
-      </c>
-      <c r="G600" t="n">
-        <v>-3548.483036160001</v>
-      </c>
-      <c r="H600" t="n">
-        <v>2</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="n">
-        <v>1</v>
-      </c>
-      <c r="M600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>68250</v>
-      </c>
-      <c r="C601" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D601" t="n">
-        <v>68250</v>
-      </c>
-      <c r="E601" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F601" t="n">
-        <v>14.2024</v>
-      </c>
-      <c r="G601" t="n">
-        <v>-3562.685436160001</v>
-      </c>
-      <c r="H601" t="n">
-        <v>2</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="n">
-        <v>1</v>
-      </c>
-      <c r="M601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C602" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D602" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E602" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F602" t="n">
-        <v>45.1962</v>
-      </c>
-      <c r="G602" t="n">
-        <v>-3562.685436160001</v>
-      </c>
-      <c r="H602" t="n">
-        <v>2</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="n">
-        <v>1</v>
-      </c>
-      <c r="M602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>67950</v>
-      </c>
-      <c r="C603" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D603" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E603" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F603" t="n">
-        <v>19.8964</v>
-      </c>
-      <c r="G603" t="n">
-        <v>-3582.581836160001</v>
-      </c>
-      <c r="H603" t="n">
-        <v>2</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="n">
-        <v>1</v>
-      </c>
-      <c r="M603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C604" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D604" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E604" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F604" t="n">
-        <v>100</v>
-      </c>
-      <c r="G604" t="n">
-        <v>-3482.581836160001</v>
-      </c>
-      <c r="H604" t="n">
-        <v>2</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="n">
-        <v>1</v>
-      </c>
-      <c r="M604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>68050</v>
-      </c>
-      <c r="C605" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D605" t="n">
-        <v>68050</v>
-      </c>
-      <c r="E605" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F605" t="n">
-        <v>4.5145</v>
-      </c>
-      <c r="G605" t="n">
-        <v>-3482.581836160001</v>
-      </c>
-      <c r="H605" t="n">
-        <v>2</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="n">
-        <v>1</v>
-      </c>
-      <c r="M605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
-        <v>604</v>
-      </c>
-      <c r="B606" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C606" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D606" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E606" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F606" t="n">
-        <v>9.330500000000001</v>
-      </c>
-      <c r="G606" t="n">
-        <v>-3491.912336160001</v>
-      </c>
-      <c r="H606" t="n">
-        <v>2</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="n">
-        <v>1</v>
-      </c>
-      <c r="M606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
-        <v>605</v>
-      </c>
-      <c r="B607" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C607" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D607" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E607" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F607" t="n">
-        <v>78.5074</v>
-      </c>
-      <c r="G607" t="n">
-        <v>-3413.404936160001</v>
-      </c>
-      <c r="H607" t="n">
-        <v>2</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="n">
-        <v>1</v>
-      </c>
-      <c r="M607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
-        <v>606</v>
-      </c>
-      <c r="B608" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C608" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D608" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E608" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F608" t="n">
-        <v>78.56010000000001</v>
-      </c>
-      <c r="G608" t="n">
-        <v>-3491.965036160001</v>
-      </c>
-      <c r="H608" t="n">
-        <v>2</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
-      <c r="L608" t="n">
-        <v>1</v>
-      </c>
-      <c r="M608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
-        <v>607</v>
-      </c>
-      <c r="B609" t="n">
-        <v>67850</v>
-      </c>
-      <c r="C609" t="n">
-        <v>67850</v>
-      </c>
-      <c r="D609" t="n">
-        <v>67850</v>
-      </c>
-      <c r="E609" t="n">
-        <v>67850</v>
-      </c>
-      <c r="F609" t="n">
-        <v>0.6464</v>
-      </c>
-      <c r="G609" t="n">
-        <v>-3492.611436160001</v>
-      </c>
-      <c r="H609" t="n">
-        <v>2</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
-      <c r="L609" t="n">
-        <v>1</v>
-      </c>
-      <c r="M609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
-        <v>608</v>
-      </c>
-      <c r="B610" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C610" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D610" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E610" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F610" t="n">
-        <v>9.9419</v>
-      </c>
-      <c r="G610" t="n">
-        <v>-3482.669536160001</v>
-      </c>
-      <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
-      <c r="L610" t="n">
-        <v>1</v>
-      </c>
-      <c r="M610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
-        <v>609</v>
-      </c>
-      <c r="B611" t="n">
-        <v>67700</v>
-      </c>
-      <c r="C611" t="n">
-        <v>67700</v>
-      </c>
-      <c r="D611" t="n">
-        <v>67700</v>
-      </c>
-      <c r="E611" t="n">
-        <v>67700</v>
-      </c>
-      <c r="F611" t="n">
-        <v>1.7296</v>
-      </c>
-      <c r="G611" t="n">
-        <v>-3484.399136160001</v>
-      </c>
-      <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
-      <c r="L611" t="n">
-        <v>1</v>
-      </c>
-      <c r="M611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>610</v>
-      </c>
-      <c r="B612" t="n">
-        <v>67700</v>
-      </c>
-      <c r="C612" t="n">
-        <v>67700</v>
-      </c>
-      <c r="D612" t="n">
-        <v>67700</v>
-      </c>
-      <c r="E612" t="n">
-        <v>67700</v>
-      </c>
-      <c r="F612" t="n">
-        <v>256.0349</v>
-      </c>
-      <c r="G612" t="n">
-        <v>-3484.399136160001</v>
-      </c>
-      <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
-      <c r="L612" t="n">
-        <v>1</v>
-      </c>
-      <c r="M612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>611</v>
-      </c>
-      <c r="B613" t="n">
-        <v>67800</v>
-      </c>
-      <c r="C613" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D613" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E613" t="n">
-        <v>67700</v>
-      </c>
-      <c r="F613" t="n">
-        <v>165.6517</v>
-      </c>
-      <c r="G613" t="n">
-        <v>-3318.747436160002</v>
-      </c>
-      <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
-      <c r="L613" t="n">
-        <v>1</v>
-      </c>
-      <c r="M613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>612</v>
-      </c>
-      <c r="B614" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C614" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D614" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E614" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F614" t="n">
-        <v>104.3942</v>
-      </c>
-      <c r="G614" t="n">
-        <v>-3214.353236160001</v>
-      </c>
-      <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
-      <c r="L614" t="n">
-        <v>1</v>
-      </c>
-      <c r="M614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>613</v>
-      </c>
-      <c r="B615" t="n">
-        <v>67950</v>
-      </c>
-      <c r="C615" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D615" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E615" t="n">
-        <v>67950</v>
-      </c>
-      <c r="F615" t="n">
-        <v>0.4485</v>
-      </c>
-      <c r="G615" t="n">
-        <v>-3214.801736160001</v>
-      </c>
-      <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
-      <c r="L615" t="n">
-        <v>1</v>
-      </c>
-      <c r="M615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>614</v>
-      </c>
-      <c r="B616" t="n">
-        <v>67950</v>
-      </c>
-      <c r="C616" t="n">
-        <v>67950</v>
-      </c>
-      <c r="D616" t="n">
-        <v>67950</v>
-      </c>
-      <c r="E616" t="n">
-        <v>67950</v>
-      </c>
-      <c r="F616" t="n">
-        <v>5.1646</v>
-      </c>
-      <c r="G616" t="n">
-        <v>-3214.801736160001</v>
-      </c>
-      <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
-      <c r="L616" t="n">
-        <v>1</v>
-      </c>
-      <c r="M616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>615</v>
-      </c>
-      <c r="B617" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C617" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D617" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E617" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F617" t="n">
-        <v>7.3754</v>
-      </c>
-      <c r="G617" t="n">
-        <v>-3222.177136160001</v>
-      </c>
-      <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
-      <c r="L617" t="n">
-        <v>1</v>
-      </c>
-      <c r="M617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>616</v>
-      </c>
-      <c r="B618" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C618" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D618" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E618" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F618" t="n">
-        <v>0.9922</v>
-      </c>
-      <c r="G618" t="n">
-        <v>-3222.177136160001</v>
-      </c>
-      <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
-      <c r="L618" t="n">
-        <v>1</v>
-      </c>
-      <c r="M618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>617</v>
-      </c>
-      <c r="B619" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C619" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D619" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E619" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F619" t="n">
-        <v>18.6847</v>
-      </c>
-      <c r="G619" t="n">
-        <v>-3222.177136160001</v>
-      </c>
-      <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
-      <c r="L619" t="n">
-        <v>1</v>
-      </c>
-      <c r="M619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>618</v>
-      </c>
-      <c r="B620" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C620" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D620" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E620" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F620" t="n">
-        <v>5.9662</v>
-      </c>
-      <c r="G620" t="n">
-        <v>-3216.210936160001</v>
-      </c>
-      <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
-      <c r="L620" t="n">
-        <v>1</v>
-      </c>
-      <c r="M620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>619</v>
-      </c>
-      <c r="B621" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C621" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D621" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E621" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F621" t="n">
-        <v>3.8445</v>
-      </c>
-      <c r="G621" t="n">
-        <v>-3216.210936160001</v>
-      </c>
-      <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
-      <c r="L621" t="n">
-        <v>1</v>
-      </c>
-      <c r="M621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>620</v>
-      </c>
-      <c r="B622" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C622" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D622" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E622" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F622" t="n">
-        <v>7.3746</v>
-      </c>
-      <c r="G622" t="n">
-        <v>-3223.585536160002</v>
-      </c>
-      <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
-      <c r="L622" t="n">
-        <v>1</v>
-      </c>
-      <c r="M622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>621</v>
-      </c>
-      <c r="B623" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C623" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D623" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E623" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F623" t="n">
-        <v>23.1923</v>
-      </c>
-      <c r="G623" t="n">
-        <v>-3200.393236160001</v>
-      </c>
-      <c r="H623" t="n">
-        <v>0</v>
-      </c>
-      <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
-      <c r="L623" t="n">
-        <v>1</v>
-      </c>
-      <c r="M623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>622</v>
-      </c>
-      <c r="B624" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C624" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D624" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E624" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F624" t="n">
-        <v>4.5322</v>
-      </c>
-      <c r="G624" t="n">
-        <v>-3204.925436160001</v>
-      </c>
-      <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
-      <c r="L624" t="n">
-        <v>1</v>
-      </c>
-      <c r="M624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>623</v>
-      </c>
-      <c r="B625" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C625" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D625" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E625" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F625" t="n">
-        <v>27.9058</v>
-      </c>
-      <c r="G625" t="n">
-        <v>-3177.019636160001</v>
-      </c>
-      <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
-      <c r="L625" t="n">
-        <v>1</v>
-      </c>
-      <c r="M625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>624</v>
-      </c>
-      <c r="B626" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C626" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D626" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E626" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F626" t="n">
-        <v>4.9875</v>
-      </c>
-      <c r="G626" t="n">
-        <v>-3182.007136160002</v>
-      </c>
-      <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
-      <c r="L626" t="n">
-        <v>1</v>
-      </c>
-      <c r="M626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>625</v>
-      </c>
-      <c r="B627" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C627" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D627" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E627" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F627" t="n">
-        <v>14.893</v>
-      </c>
-      <c r="G627" t="n">
-        <v>-3182.007136160002</v>
-      </c>
-      <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
-      <c r="L627" t="n">
-        <v>1</v>
-      </c>
-      <c r="M627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>626</v>
-      </c>
-      <c r="B628" t="n">
-        <v>67900</v>
-      </c>
-      <c r="C628" t="n">
-        <v>67900</v>
-      </c>
-      <c r="D628" t="n">
-        <v>67900</v>
-      </c>
-      <c r="E628" t="n">
-        <v>67900</v>
-      </c>
-      <c r="F628" t="n">
-        <v>41.4331</v>
-      </c>
-      <c r="G628" t="n">
-        <v>-3182.007136160002</v>
-      </c>
-      <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
-      <c r="L628" t="n">
-        <v>1</v>
-      </c>
-      <c r="M628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>627</v>
-      </c>
-      <c r="B629" t="n">
-        <v>67800</v>
-      </c>
-      <c r="C629" t="n">
-        <v>67750</v>
-      </c>
-      <c r="D629" t="n">
-        <v>67800</v>
-      </c>
-      <c r="E629" t="n">
-        <v>67750</v>
-      </c>
-      <c r="F629" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="G629" t="n">
-        <v>-3200.827136160002</v>
-      </c>
-      <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
-      <c r="L629" t="n">
-        <v>1</v>
-      </c>
-      <c r="M629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>628</v>
-      </c>
-      <c r="B630" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C630" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D630" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E630" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F630" t="n">
-        <v>0.8455</v>
-      </c>
-      <c r="G630" t="n">
-        <v>-3199.981636160002</v>
-      </c>
-      <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
-      <c r="L630" t="n">
-        <v>1</v>
-      </c>
-      <c r="M630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>629</v>
-      </c>
-      <c r="B631" t="n">
-        <v>68000</v>
-      </c>
-      <c r="C631" t="n">
-        <v>68000</v>
-      </c>
-      <c r="D631" t="n">
-        <v>68000</v>
-      </c>
-      <c r="E631" t="n">
-        <v>68000</v>
-      </c>
-      <c r="F631" t="n">
-        <v>71.2487</v>
-      </c>
-      <c r="G631" t="n">
-        <v>-3199.981636160002</v>
-      </c>
-      <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
-      <c r="L631" t="n">
-        <v>1</v>
-      </c>
-      <c r="M631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>630</v>
-      </c>
-      <c r="B632" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C632" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D632" t="n">
-        <v>68100</v>
-      </c>
-      <c r="E632" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F632" t="n">
-        <v>0.0289</v>
-      </c>
-      <c r="G632" t="n">
-        <v>-3199.952736160002</v>
-      </c>
-      <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
-      <c r="L632" t="n">
-        <v>1</v>
-      </c>
-      <c r="M632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>631</v>
-      </c>
-      <c r="B633" t="n">
-        <v>68100</v>
-      </c>
-      <c r="C633" t="n">
-        <v>68100</v>
-      </c>
-      <c r="D633" t="n">
-        <v>68250</v>
-      </c>
-      <c r="E633" t="n">
-        <v>68100</v>
-      </c>
-      <c r="F633" t="n">
-        <v>78.89610293</v>
-      </c>
-      <c r="G633" t="n">
-        <v>-3199.952736160002</v>
-      </c>
-      <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
-      <c r="L633" t="n">
-        <v>1</v>
-      </c>
-      <c r="M633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>632</v>
-      </c>
-      <c r="B634" t="n">
-        <v>68250</v>
-      </c>
-      <c r="C634" t="n">
-        <v>68450</v>
-      </c>
-      <c r="D634" t="n">
-        <v>68450</v>
-      </c>
-      <c r="E634" t="n">
-        <v>68250</v>
-      </c>
-      <c r="F634" t="n">
-        <v>18.69159707</v>
-      </c>
-      <c r="G634" t="n">
-        <v>-3181.261139090002</v>
-      </c>
-      <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
-      <c r="L634" t="n">
-        <v>1</v>
-      </c>
-      <c r="M634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>633</v>
-      </c>
-      <c r="B635" t="n">
-        <v>68400</v>
-      </c>
-      <c r="C635" t="n">
-        <v>68400</v>
-      </c>
-      <c r="D635" t="n">
-        <v>68400</v>
-      </c>
-      <c r="E635" t="n">
-        <v>68400</v>
-      </c>
-      <c r="F635" t="n">
-        <v>0.855</v>
-      </c>
-      <c r="G635" t="n">
-        <v>-3182.116139090002</v>
-      </c>
-      <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
-      <c r="L635" t="n">
-        <v>1</v>
-      </c>
-      <c r="M635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>634</v>
-      </c>
-      <c r="B636" t="n">
-        <v>68400</v>
-      </c>
-      <c r="C636" t="n">
-        <v>68400</v>
-      </c>
-      <c r="D636" t="n">
-        <v>68400</v>
-      </c>
-      <c r="E636" t="n">
-        <v>68400</v>
-      </c>
-      <c r="F636" t="n">
-        <v>132.7366</v>
-      </c>
-      <c r="G636" t="n">
-        <v>-3182.116139090002</v>
-      </c>
-      <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
-      <c r="L636" t="n">
-        <v>1</v>
-      </c>
-      <c r="M636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>635</v>
-      </c>
-      <c r="B637" t="n">
-        <v>68500</v>
-      </c>
-      <c r="C637" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D637" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E637" t="n">
-        <v>68500</v>
-      </c>
-      <c r="F637" t="n">
-        <v>0.4758</v>
-      </c>
-      <c r="G637" t="n">
-        <v>-3181.640339090002</v>
-      </c>
-      <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
-      <c r="L637" t="n">
-        <v>1</v>
-      </c>
-      <c r="M637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>636</v>
-      </c>
-      <c r="B638" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C638" t="n">
-        <v>68450</v>
-      </c>
-      <c r="D638" t="n">
-        <v>68450</v>
-      </c>
-      <c r="E638" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F638" t="n">
-        <v>0.112</v>
-      </c>
-      <c r="G638" t="n">
-        <v>-3181.752339090002</v>
-      </c>
-      <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
-      <c r="L638" t="n">
-        <v>1</v>
-      </c>
-      <c r="M638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>637</v>
-      </c>
-      <c r="B639" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C639" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D639" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E639" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F639" t="n">
-        <v>10.7881</v>
-      </c>
-      <c r="G639" t="n">
-        <v>-3170.964239090002</v>
-      </c>
-      <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
-      <c r="L639" t="n">
-        <v>1</v>
-      </c>
-      <c r="M639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>638</v>
-      </c>
-      <c r="B640" t="n">
-        <v>68600</v>
-      </c>
-      <c r="C640" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D640" t="n">
-        <v>68600</v>
-      </c>
-      <c r="E640" t="n">
-        <v>68500</v>
-      </c>
-      <c r="F640" t="n">
-        <v>79.1733</v>
-      </c>
-      <c r="G640" t="n">
-        <v>-3170.964239090002</v>
-      </c>
-      <c r="H640" t="n">
-        <v>0</v>
-      </c>
-      <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
-      <c r="M640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>639</v>
-      </c>
-      <c r="B641" t="n">
-        <v>68500</v>
-      </c>
-      <c r="C641" t="n">
-        <v>68600</v>
-      </c>
-      <c r="D641" t="n">
-        <v>68600</v>
-      </c>
-      <c r="E641" t="n">
-        <v>68500</v>
-      </c>
-      <c r="F641" t="n">
-        <v>1.7089</v>
-      </c>
-      <c r="G641" t="n">
-        <v>-3169.255339090002</v>
-      </c>
-      <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
-      <c r="L641" t="n">
-        <v>1</v>
-      </c>
-      <c r="M641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="B642" t="n">
-        <v>68500</v>
-      </c>
-      <c r="C642" t="n">
-        <v>68500</v>
-      </c>
-      <c r="D642" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E642" t="n">
-        <v>68500</v>
-      </c>
-      <c r="F642" t="n">
-        <v>0.0497</v>
-      </c>
-      <c r="G642" t="n">
-        <v>-3169.305039090002</v>
-      </c>
-      <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
-      <c r="L642" t="n">
-        <v>1</v>
-      </c>
-      <c r="M642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>641</v>
-      </c>
-      <c r="B643" t="n">
-        <v>68500</v>
-      </c>
-      <c r="C643" t="n">
-        <v>68450</v>
-      </c>
-      <c r="D643" t="n">
-        <v>68500</v>
-      </c>
-      <c r="E643" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F643" t="n">
-        <v>11.7708</v>
-      </c>
-      <c r="G643" t="n">
-        <v>-3181.075839090001</v>
-      </c>
-      <c r="H643" t="n">
-        <v>0</v>
-      </c>
-      <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
-      <c r="L643" t="n">
-        <v>1</v>
-      </c>
-      <c r="M643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>642</v>
-      </c>
-      <c r="B644" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C644" t="n">
-        <v>68450</v>
-      </c>
-      <c r="D644" t="n">
-        <v>68450</v>
-      </c>
-      <c r="E644" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F644" t="n">
-        <v>64.2972</v>
-      </c>
-      <c r="G644" t="n">
-        <v>-3181.075839090001</v>
-      </c>
-      <c r="H644" t="n">
-        <v>0</v>
-      </c>
-      <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
-      <c r="L644" t="n">
-        <v>1</v>
-      </c>
-      <c r="M644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>643</v>
-      </c>
-      <c r="B645" t="n">
-        <v>68450</v>
-      </c>
-      <c r="C645" t="n">
-        <v>68450</v>
-      </c>
-      <c r="D645" t="n">
-        <v>68450</v>
-      </c>
-      <c r="E645" t="n">
-        <v>68450</v>
-      </c>
-      <c r="F645" t="n">
-        <v>8.4229</v>
-      </c>
-      <c r="G645" t="n">
-        <v>-3181.075839090001</v>
-      </c>
-      <c r="H645" t="n">
-        <v>0</v>
-      </c>
-      <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
-      <c r="L645" t="n">
-        <v>1</v>
-      </c>
-      <c r="M645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>644</v>
-      </c>
-      <c r="B646" t="n">
-        <v>68400</v>
-      </c>
-      <c r="C646" t="n">
-        <v>68400</v>
-      </c>
-      <c r="D646" t="n">
-        <v>68400</v>
-      </c>
-      <c r="E646" t="n">
-        <v>68400</v>
-      </c>
-      <c r="F646" t="n">
-        <v>17.5453</v>
-      </c>
-      <c r="G646" t="n">
-        <v>-3198.621139090002</v>
-      </c>
-      <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
-      <c r="L646" t="n">
-        <v>1</v>
-      </c>
-      <c r="M646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>645</v>
-      </c>
-      <c r="B647" t="n">
-        <v>68400</v>
-      </c>
-      <c r="C647" t="n">
-        <v>68400</v>
-      </c>
-      <c r="D647" t="n">
-        <v>68400</v>
-      </c>
-      <c r="E647" t="n">
-        <v>68400</v>
-      </c>
-      <c r="F647" t="n">
-        <v>10.043</v>
-      </c>
-      <c r="G647" t="n">
-        <v>-3198.621139090002</v>
-      </c>
-      <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
-      <c r="M647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>646</v>
-      </c>
-      <c r="B648" t="n">
-        <v>68400</v>
-      </c>
-      <c r="C648" t="n">
-        <v>68600</v>
-      </c>
-      <c r="D648" t="n">
-        <v>68600</v>
-      </c>
-      <c r="E648" t="n">
-        <v>68400</v>
-      </c>
-      <c r="F648" t="n">
-        <v>105.705</v>
-      </c>
-      <c r="G648" t="n">
-        <v>-3092.916139090002</v>
-      </c>
-      <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
-      <c r="L648" t="n">
-        <v>1</v>
-      </c>
-      <c r="M648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>647</v>
-      </c>
-      <c r="B649" t="n">
-        <v>68700</v>
-      </c>
-      <c r="C649" t="n">
-        <v>68650</v>
-      </c>
-      <c r="D649" t="n">
-        <v>68700</v>
-      </c>
-      <c r="E649" t="n">
-        <v>68600</v>
-      </c>
-      <c r="F649" t="n">
-        <v>231.8359</v>
-      </c>
-      <c r="G649" t="n">
-        <v>-2861.080239090002</v>
-      </c>
-      <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
-      <c r="L649" t="n">
-        <v>1</v>
-      </c>
-      <c r="M649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>648</v>
-      </c>
-      <c r="B650" t="n">
-        <v>68700</v>
-      </c>
-      <c r="C650" t="n">
-        <v>68700</v>
-      </c>
-      <c r="D650" t="n">
-        <v>68700</v>
-      </c>
-      <c r="E650" t="n">
-        <v>68700</v>
-      </c>
-      <c r="F650" t="n">
-        <v>3.809</v>
-      </c>
-      <c r="G650" t="n">
-        <v>-2857.271239090001</v>
-      </c>
-      <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>68800</v>
-      </c>
-      <c r="C651" t="n">
-        <v>69000</v>
-      </c>
-      <c r="D651" t="n">
-        <v>69100</v>
-      </c>
-      <c r="E651" t="n">
-        <v>68800</v>
-      </c>
-      <c r="F651" t="n">
-        <v>177.4653</v>
-      </c>
-      <c r="G651" t="n">
-        <v>-2679.805939090002</v>
-      </c>
-      <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>69050</v>
-      </c>
-      <c r="C652" t="n">
-        <v>68850</v>
-      </c>
-      <c r="D652" t="n">
-        <v>69050</v>
-      </c>
-      <c r="E652" t="n">
-        <v>68800</v>
-      </c>
-      <c r="F652" t="n">
-        <v>21.9432</v>
-      </c>
-      <c r="G652" t="n">
-        <v>-2701.749139090002</v>
-      </c>
-      <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>68800</v>
-      </c>
-      <c r="C653" t="n">
-        <v>68850</v>
-      </c>
-      <c r="D653" t="n">
-        <v>69000</v>
-      </c>
-      <c r="E653" t="n">
-        <v>68800</v>
-      </c>
-      <c r="F653" t="n">
-        <v>156.0945</v>
-      </c>
-      <c r="G653" t="n">
-        <v>-2701.749139090002</v>
-      </c>
-      <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>69050</v>
-      </c>
-      <c r="C654" t="n">
-        <v>69050</v>
-      </c>
-      <c r="D654" t="n">
-        <v>69050</v>
-      </c>
-      <c r="E654" t="n">
-        <v>69050</v>
-      </c>
-      <c r="F654" t="n">
-        <v>0.0118</v>
-      </c>
-      <c r="G654" t="n">
-        <v>-2701.737339090002</v>
-      </c>
-      <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>69050</v>
-      </c>
-      <c r="C655" t="n">
-        <v>69500</v>
-      </c>
-      <c r="D655" t="n">
-        <v>69500</v>
-      </c>
-      <c r="E655" t="n">
-        <v>69050</v>
-      </c>
-      <c r="F655" t="n">
-        <v>223.682</v>
-      </c>
-      <c r="G655" t="n">
-        <v>-2478.055339090002</v>
-      </c>
-      <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>69500</v>
-      </c>
-      <c r="C656" t="n">
-        <v>69500</v>
-      </c>
-      <c r="D656" t="n">
-        <v>69550</v>
-      </c>
-      <c r="E656" t="n">
-        <v>69300</v>
-      </c>
-      <c r="F656" t="n">
-        <v>448.7417</v>
-      </c>
-      <c r="G656" t="n">
-        <v>-2478.055339090002</v>
-      </c>
-      <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>69400</v>
-      </c>
-      <c r="C657" t="n">
-        <v>69750</v>
-      </c>
-      <c r="D657" t="n">
-        <v>69800</v>
-      </c>
-      <c r="E657" t="n">
-        <v>69400</v>
-      </c>
-      <c r="F657" t="n">
-        <v>67.7514</v>
-      </c>
-      <c r="G657" t="n">
-        <v>-2410.303939090002</v>
-      </c>
-      <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>69750</v>
-      </c>
-      <c r="C658" t="n">
-        <v>69550</v>
-      </c>
-      <c r="D658" t="n">
-        <v>69750</v>
-      </c>
-      <c r="E658" t="n">
-        <v>69550</v>
-      </c>
-      <c r="F658" t="n">
-        <v>53.2248</v>
-      </c>
-      <c r="G658" t="n">
-        <v>-2463.528739090002</v>
-      </c>
-      <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>69550</v>
-      </c>
-      <c r="C659" t="n">
-        <v>69600</v>
-      </c>
-      <c r="D659" t="n">
-        <v>69600</v>
-      </c>
-      <c r="E659" t="n">
-        <v>69550</v>
-      </c>
-      <c r="F659" t="n">
-        <v>44.598</v>
-      </c>
-      <c r="G659" t="n">
-        <v>-2418.930739090002</v>
-      </c>
-      <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
-      <c r="L659" t="n">
-        <v>1</v>
-      </c>
+      <c r="L659" t="inlineStr"/>
       <c r="M659" t="inlineStr"/>
     </row>
     <row r="660">
@@ -22581,7 +22837,7 @@
         <v>-2403.436539090002</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22614,7 +22870,7 @@
         <v>-2406.786539090001</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22680,7 +22936,7 @@
         <v>-2456.579633930002</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22713,7 +22969,7 @@
         <v>-2465.870734000002</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22746,7 +23002,7 @@
         <v>-2407.944034000002</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22779,7 +23035,7 @@
         <v>-2389.797834000002</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22812,7 +23068,7 @@
         <v>-2414.127334000002</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22845,7 +23101,7 @@
         <v>-2209.003434000002</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -22878,7 +23134,7 @@
         <v>-2187.960054030002</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -22911,7 +23167,7 @@
         <v>-2184.338754030002</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22944,7 +23200,7 @@
         <v>-2027.856554030002</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22977,7 +23233,7 @@
         <v>-2028.056554030002</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23010,7 +23266,7 @@
         <v>-2010.593454030002</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23043,7 +23299,7 @@
         <v>-2110.607281540002</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23076,7 +23332,7 @@
         <v>-2087.480475850002</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23109,7 +23365,7 @@
         <v>-2142.065475850002</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23142,7 +23398,7 @@
         <v>-2142.065475850002</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23175,7 +23431,7 @@
         <v>-2140.733475850002</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23208,7 +23464,7 @@
         <v>-2123.819875850003</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23241,7 +23497,7 @@
         <v>-2123.819875850003</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23274,7 +23530,7 @@
         <v>-2146.318575850003</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23307,7 +23563,7 @@
         <v>-2146.318575850003</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23340,7 +23596,7 @@
         <v>-2270.040475850003</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23373,7 +23629,7 @@
         <v>-2270.040475850003</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -24165,7 +24421,7 @@
         <v>-1882.292775850003</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24198,7 +24454,7 @@
         <v>-2031.513675850003</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24231,7 +24487,7 @@
         <v>-2050.895675850003</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24264,7 +24520,7 @@
         <v>-2117.880275850003</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24528,7 +24784,7 @@
         <v>-1926.922475850003</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -24561,7 +24817,7 @@
         <v>-1957.005775850003</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -24594,7 +24850,7 @@
         <v>-2051.871175850003</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -24660,7 +24916,7 @@
         <v>-2051.871175850003</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -24693,7 +24949,7 @@
         <v>-2055.599875850003</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
